--- a/spreadsheet/macrofree/avd_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/avd_checklist.pt.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -1094,7 +1059,7 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
@@ -1109,7 +1074,7 @@
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">O plano de controle AVD não oferece um contrato de nível de serviço com suporte financeiro. Nós nos esforçamos para atingir pelo menos 99,9% de disponibilidade para as URLs de serviço da Área de Trabalho Virtual do Windows. A disponibilidade das máquinas virtuais do host de sessão em sua assinatura é coberta pelo SLA de Máquinas Virtuais. Os recursos/serviços dependentes e a disponibilidade da infraestrutura também devem ser considerados para satisfazer adequadamente os requisitos globais de alta disponibilidade. </t>
+          <t>O plano de controle AVD não oferece um contrato de nível de serviço com suporte financeiro. Nós nos esforçamos para atingir pelo menos 99,9% de disponibilidade para as URLs de serviço da Área de Trabalho Virtual do Azure. A disponibilidade das máquinas virtuais do host de sessão em sua assinatura é coberta pelo SLA de Máquinas Virtuais. Os recursos/serviços dependentes e a disponibilidade da infraestrutura também devem ser considerados para satisfazer adequadamente os requisitos globais de alta disponibilidade.</t>
         </is>
       </c>
       <c r="E8" s="21" t="inlineStr">
@@ -1144,7 +1109,7 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
@@ -1154,12 +1119,12 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Avaliar a região de recuperação de desastres geográficos para pools de hosts AVD</t>
+          <t>Avaliar os requisitos de recuperação de desastres geográficos para pools de hosts AVD</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>O modelo Active-Active' pode ser alcançado com vários pools de hosts em diferentes regiões. Um único Pool de Hosts com VMs de regiões diferentes não é recomendado. Se vários pools para os mesmos usuários forem usados, o problema de como sincronizar/replicar perfis de usuário deverá ser resolvido. O FSLogix Cloud Cache pode ser usado, mas precisa ser cuidadosamente revisado e planejado, ou os clientes podem decidir não sincronizar/replicar. 'Ativo-Passivo' pode ser obtido usando o Azure Site Recovery (ASR) ou a implantação de Pool sob demanda com mecanismo automatizado.</t>
+          <t>O modelo 'Ativo-Ativo' pode ser alcançado com vários pools de hosts em diferentes regiões. Um único Pool de Hosts com VMs de regiões diferentes não é recomendado. Se vários pools para os mesmos usuários forem usados, o problema de como sincronizar/replicar perfis de usuário deverá ser resolvido. O FSLogix Cloud Cache pode ser usado, mas precisa ser cuidadosamente revisado e planejado, ou os clientes podem decidir não sincronizar/replicar. 'Ativo-Passivo' pode ser obtido usando o Azure Site Recovery (ASR) ou a implantação de Pool sob demanda com mecanismo automatizado. Para uma discussão detalhada sobre BCDR de várias regiões, leia o artigo complementar na coluna 'Mais informações' e esta página relacionada ao FSLogix: https://learn.microsoft.com/en-us/fslogix/concepts-container-recovery-business-continuity.</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
@@ -1175,7 +1140,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/wvd/azure-virtual-desktop-multi-region-bcdr</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1194,7 +1159,7 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
@@ -1209,12 +1174,12 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Antes de abordar o planejamento e o design do BCDR da Área de Trabalho Virtual do Windows, é importante considerar inicialmente quais aplicativos são consumidos por meio do AVD como críticos. Talvez você queira separá-los de aplicativos não críticos e usar um Pool de Hosts separado com uma abordagem e recursos de recuperação de desastres diferentes.</t>
+          <t>Antes de abordar o planejamento e o design do BCDR da Área de Trabalho Virtual do Azure, é importante considerar inicialmente quais aplicativos são consumidos por meio do AVD como críticos. Talvez você queira separá-los de aplicativos não críticos e usar um Pool de Hosts separado com uma abordagem e recursos de recuperação de desastres diferentes.</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1244,7 +1209,7 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
@@ -1259,7 +1224,7 @@
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">? Você selecionou o nível de resiliência adequado para suas VMs do Pool de Hosts (Conjunto de Disponibilidade vs. Zonas de Disponibilidade)?? Você está ciente das implicações no SLA de HA e nos limites de escalabilidade que vêm com AS ou AZ? No momento, você pode implantar 399 VMs por implantação de modelo ARM de Área de Trabalho Virtual do Windows sem Conjuntos de Disponibilidade ou 200 VMs por Conjunto de Disponibilidade.? Você pode aumentar o número de VMs por implantação desativando os Conjuntos de Disponibilidade no modelo ARM ou no registro do pool de hosts do portal do Azure. Implantar AZ agora é possível, um AZ de cada vez no momento, precisa criar manualmente uma fração de VMs em cada AZ desejado. </t>
+          <t>Cada Pool de Hosts pode ser implantado usando Zonas de Disponibilidade (AZ) ou Conjunto de Disponibilidade (AS). Para maximizar a resiliência, o uso do AZ é recomendado: no momento da criação do Pool de Hosts, você pode decidir espalhar os Hosts de Sessão do Pool de Hosts por todos os AZ disponíveis. Mais detalhes sobre AZ e AVD no artigo complementar. Para uma comparação entre AZ e AS, você pode ler aqui: https://learn.microsoft.com/en-us/azure/virtual-machines/availability.</t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1275,7 +1240,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-virtual-desktop-blog/announcing-general-availability-of-support-for-azure/ba-p/3636262</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1294,7 +1259,7 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
@@ -1304,12 +1269,12 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Avaliar o requisito de backup de hosts de sessão AVD</t>
+          <t>Avaliar o requisito de backup de VMs de host de sessão AVD</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Backup do Azure também pode ser usado para proteger VMs de Pool de Hosts, essa prática é suportada, mesmo que as VMs de Pool de Hosts devam ser sem monitoração de estado. Essa opção pode ser considerada para Pools de Host Pessoal. </t>
+          <t>O Backup do Azure pode ser usado para proteger VMs do Pool de Hosts. Para pools agrupados, isso não é necessário, pois deve ser sem monitoração de estado. Em vez disso, essa opção pode ser considerada para Pools de Host Pessoal.</t>
         </is>
       </c>
       <c r="E12" s="21" t="inlineStr">
@@ -1344,27 +1309,27 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>Dependências</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Planejar a disponibilidade entre regiões da Golden Image</t>
+          <t>Preparar uma estratégia de DR local para hosts de sessão do pool de hosts pessoais</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Se imagens personalizadas forem usadas para implantar VMs de pool de hosts AVD, é importante garantir que esses artefatos estejam disponíveis em todas as regiões, mesmo em caso de desastre grave. O serviço Galeria de Computação do Azure pode ser usado para replicar imagens em todas as regiões onde um Pool de Hosts está implantado, com armazenamento redundante e em várias cópias.</t>
+          <t>Mesmo para Pools Pessoais, recomenda-se o uso de Zonas de Disponibilidade, quando disponíveis. Três possíveis estratégias de DR na região são possíveis, recomenda-se selecionar a melhor com base no custo, RTO/RPO, e se for realmente necessário salvar todo o disco do sistema operacional da VM: (1) crie cada host de sessão em uma zona específica (AZ) e, em seguida, use o Azure Site Recovery (ASR) para replicar para uma zona diferente. (2) Use o Backup do Azure para fazer backup e restaurar o host de sessão específico em um AZ diferente. (3) Crie um novo host de sessão em um AZ diferente e confie no FSLogix e/ou no OneDrive para disponibilizar dados e configurações na nova máquina. Todas as opções exigem intervenção do administrador para DR e atribuição direta de usuário no nível do Pool de Hosts, então devem ser planejadas e configuradas com antecedência.</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1375,7 +1340,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/azure-to-azure-how-to-enable-zone-to-zone-disaster-recovery</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1383,7 +1348,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
+          <t>5da58639-ca3a-4961-890b-29663c5e10d</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1394,7 +1359,7 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
@@ -1404,17 +1369,17 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avaliar dependências de infraestrutura e aplicativos </t>
+          <t>Planejar a disponibilidade entre regiões da Golden Image</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>Se os usuários da infraestrutura AVD precisarem de acesso a recursos locais, a alta disponibilidade da infraestrutura de rede necessária para se conectar também é crítica e deve ser considerada. A resiliência da infraestrutura de autenticação precisa ser avaliada e avaliada. Os aspectos de BCDR para aplicativos dependentes e outros recursos precisam ser considerados para garantir a disponibilidade no local de recuperação de desastres secundário.</t>
+          <t>Se imagens personalizadas forem usadas para implantar VMs do Pool de Hosts AVD, é importante garantir que esses artefatos estejam disponíveis em todas as regiões onde o AVD está implantado. O serviço Galeria de Computação do Azure pode ser usado para replicar imagens em todas as regiões onde um Pool de Hosts está implantado, com armazenamento redundante e em várias cópias. Lembre-se de que o serviço Galeria de Computação do Azure não é um recurso global. Para cenários de recuperação de desastres, a prática recomendada é ter pelo menos duas galerias, em regiões diferentes.</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1425,7 +1390,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/azure-compute-gallery</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1433,7 +1398,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
+          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1444,22 +1409,22 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Dependências</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Avaliar quais dados precisam ser protegidos dentro do Perfil e dos Contêineres do Office</t>
+          <t xml:space="preserve">Avaliar dependências de infraestrutura e aplicativos </t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nem todos os dados dentro dos perfis de usuário do FSLogix podem merecer proteção contra desastres. Além disso, se o armazenamento externo for usado, por exemplo, OneDrive ou Servidores/Compartilhamentos de Arquivos, o que resta no perfil FSLogix é mínimo e pode ser perdido em algumas circunstâncias extremas. Em outros casos, os dados dentro do perfil podem ser recriados a partir de outros armazenamentos (por exemplo, Caixa de Entrada do Outlook no modo em cache). </t>
+          <t>Se os usuários da infraestrutura AVD precisarem de acesso a recursos locais, a alta disponibilidade da infraestrutura de rede necessária para se conectar também é crítica e deve ser considerada. A resiliência da infraestrutura de autenticação precisa ser avaliada e avaliada. Os aspectos de BCDR para aplicativos dependentes e outros recursos precisam ser considerados para garantir a disponibilidade no local de recuperação de desastres secundário.</t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
@@ -1475,7 +1440,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1483,7 +1448,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
+          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1494,7 +1459,7 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
@@ -1504,12 +1469,12 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Criar uma estratégia de proteção de backup para perfis e contêineres do Office</t>
+          <t>Avaliar quais dados precisam ser protegidos no Perfil e nos Contêineres do Office</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Evitar a perda de dados para dados críticos do usuário é importante, o primeiro passo é avaliar quais dados precisam ser salvos e protegidos. Se estiver usando o OneDrive ou outro armazenamento externo, talvez não seja necessário salvar dados de Perfil de usuário e/ou Contêineres do Office. Deve ser considerado um mecanismo adequado para proteger os dados críticos dos utilizadores. O serviço de Backup do Azure pode ser usado para proteger dados de Perfil e Contêineres do Office quando armazenados nas camadas Standard e Premium dos Arquivos do Azure. Os Instantâneos e Políticas de Arquivos do Azure NetApp podem ser usados para Arquivos do Azure NetApp (todas as camadas).</t>
+          <t>Nem todos os dados dentro dos perfis de usuário do FSLogix podem merecer proteção contra desastres. Além disso, se o armazenamento externo for usado, por exemplo, OneDrive ou Servidores/Compartilhamentos de Arquivos, o que resta no perfil FSLogix é mínimo e pode ser perdido em algumas circunstâncias extremas. Em outros casos, os dados dentro do perfil podem ser recriados a partir de outros armazenamentos (por exemplo, Caixa de Entrada do Outlook no modo em cache).</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1525,7 +1490,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1533,7 +1498,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1544,7 +1509,7 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
@@ -1554,12 +1519,12 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Avaliar os requisitos de replicação e resiliência do armazenamento de contêiner de perfil para fins de BCDR</t>
+          <t>Criar uma estratégia de proteção de backup para perfis e contêineres do Office</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>No AVD, vários mecanismos e estratégias de replicação podem ser usados para dados do usuário que residem em contêineres FSLogix:? Padrão de Perfil #1: Mecanismos nativos de replicação de armazenamento do Azure, por exemplo, replicação GRS do Azure Files Standard, Replicação entre regiões de Arquivos do Azure NetApp ou Sincronização de Arquivos do Azure para servidores de arquivos baseados em VM? Usar ZRS (Zone Replicated Storage) ou GRS (Geo Replicated Storage, armazenamento replicado geograficamente) para Arquivos do Azure é recomendado.? O LRS com resiliência local somente pode ser usado se nenhuma proteção de zona/região for necessária.? NOTA: O Padrão de Compartilhamento de Arquivos do Azure é LRS/ZRS/GRS, mas com suporte grande de 100 TB habilitado, somente há suporte para LRS/ZRS. ? Padrão de perfil #2: O FSLogix Cloud Cache é um mecanismo automático integrado para replicar contêineres entre diferentes (até 4) contas de armazenamento. O Cloud Cache deve ser usado somente quando:? Perfil de usuário ou contêineres do Office disponibilidade de dados necessária SLA de alta disponibilidade é crítico e precisa ser resiliente a falhas de região.? A opção de armazenamento selecionada não é capaz de atender aos requisitos do BCDR. Por exemplo, com a camada Premium de Compartilhamento de Arquivos do Azure ou o Padrão de Compartilhamento de Arquivos do Azure com Suporte a Arquivos Grandes habilitado, o GRS não está disponível.? Quando a replicação entre armazenamentos diferentes é necessária.? Padrão de perfil #3: configure apenas a recuperação de desastres geográficos para dados de aplicativos e não para contêineres de dados/perfis de usuários: armazene dados importantes de aplicativos em armazenamentos separados, como o OneDrive ou outro armazenamento externo com seu próprio mecanismo de recuperação de desastres interno.</t>
+          <t>Evitar a perda de dados para dados críticos do usuário é importante, o primeiro passo é avaliar quais dados precisam ser salvos e protegidos. Se estiver usando o OneDrive ou outro armazenamento externo, talvez não seja necessário salvar dados de Perfil de usuário e/ou Contêineres do Office. Deve ser considerado um mecanismo adequado para proteger os dados críticos dos utilizadores. O serviço de Backup do Azure pode ser usado para proteger dados de Perfil e Contêineres do Office quando armazenados nas camadas Standard e Premium dos Arquivos do Azure. Os Instantâneos e Políticas de Arquivos do Azure NetApp podem ser usados para Arquivos do Azure NetApp (todas as camadas).</t>
         </is>
       </c>
       <c r="E17" s="21" t="inlineStr">
@@ -1583,7 +1548,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1594,7 +1559,7 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
@@ -1604,12 +1569,12 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Revise a estratégia de DR do Azure NetApp Files</t>
+          <t>Avaliar os requisitos de replicação e resiliência do armazenamento de contêiner de perfil para fins de BCDR</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>Geo Disaster Recovery: Azure NetApp Files é essencialmente LRS (armazenamento replicado localmente), então você precisa arquitetar algo mais se quiser replicação entre regiões. A recomendação para entre regiões no momento é o NetApp Cloud Sync, replicando para outra região do Azure (e NetApp Volume). Backup: os backups são manipulados por snapshots, mas não são automáticos, precisam ser agendados usando políticas. https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots. Há um limite máximo de snapshots (255) por volume, conforme documentado aqui: https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits.</t>
+          <t>No AVD, vários mecanismos e estratégias de replicação podem ser usados para dados de usuário residentes em contêineres FSLogix: [Padrão de Perfil #1]: mecanismos de replicação de armazenamento nativos do Azure, por exemplo, replicação GRS do Azure Files Standard, replicação entre regiões do Azure NetApp Files. Recomenda-se usar ZRS (Zone Replicated Storage) ou GRS (Geo Replicated Storage, armazenamento replicado geograficamente) para Arquivos do Azure. O LRS com resiliência somente local pode ser usado se nenhuma proteção de zona/região for necessária. NOTA: O Padrão de Compartilhamento de Arquivos do Azure é LRS/ZRS/GRS, mas com suporte grande de 100 TB habilitado, somente há suporte para LRS/ZRS. [Profile Pattern #2]: O FSLogix Cloud Cache é um mecanismo automático integrado para replicar contêineres entre diferentes (até 4) contas de armazenamento. O Cloud Cache deve ser usado somente quando:(1) A disponibilidade de dados de contêineres de usuário ou contêineres do Office exigida pelo SLA de alta disponibilidade é crítica e precisa ser resiliente a falhas de região. (2) A opção de armazenamento selecionada não é capaz de satisfazer os requisitos do BCDR. Por exemplo, com a camada Premium de Compartilhamento de Arquivos do Azure ou o Padrão de Compartilhamento de Arquivos do Azure com Suporte a Arquivos Grandes habilitado, o GRS não está disponível. (3) Quando for necessária a replicação entre armazenamentos diferentes. [Padrão de Perfil #3]: configure apenas a recuperação de desastres geográficos para dados de aplicativos e não para contêineres de dados/perfis de usuários: armazene dados importantes de aplicativos em armazenamentos separados, como o OneDrive ou outro armazenamento externo com seu próprio mecanismo de DR interno.</t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1625,7 +1590,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1633,7 +1598,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
+          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1644,7 +1609,7 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
@@ -1654,12 +1619,12 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Revisar a estratégia de DR do Azure Files</t>
+          <t>Revise a estratégia de recuperação de desastres dos Arquivos do Azure</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>Recuperação de desastres geográficos: o GRS para arquivos do Azure só está disponível com SKU padrão e sem suporte a compartilhamento grande, não sendo adequado na maioria dos cenários de clientes. Se a replicação geográfica for necessária, ao usar o Azure File Share Premium, a replicação com o FSLogix Cloud Cache deverá ser avaliada ou somente a resiliência da Zona de Disponibilidade (AZ) 'na região' deverá ser considerada. Backup: o Backup do Azure dá suporte total a todos os SKUs do Compartilhamento de Arquivos do Azure e é a solução recomendada para proteger Contêineres de Perfil. Se estiver usando o OneDrive ou outro armazenamento externo, talvez não seja necessário salvar dados de Perfil de usuário e/ou Contêineres do Office.</t>
+          <t>Para recuperação de desastres local, o Backup do Azure para Arquivos do Azure pode ser usado. Para recuperação de desastres geográficos entre regiões: o GRS for Azure Files só está disponível com SKU padrão e sem suporte a compartilhamento grande, não sendo adequado na maioria dos cenários de clientes. Se a replicação geográfica for necessária com o Azure File Share Premium, a replicação com o FSLogix Cloud Cache poderá ser avaliada ou somente a resiliência da Zona de Disponibilidade (AZ) 'na região' deverá ser considerada.</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
@@ -1694,22 +1659,22 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>Imagem/s dourada</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Determinar como os aplicativos serão implantados nos pools de hosts AVD</t>
+          <t>Usar ZRS (Zone Redundant Storage) para arquivos do Azure para maximizar a resiliência</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Os aplicativos podem ser pré-instalados na(s) imagem(ns) dourada(s), podem ser anexados usando o recurso MSIX &amp; AppAttach ou distribuindo para hosts após a implantação do pool usando métodos tradicionais de distribuição SW.</t>
+          <t xml:space="preserve">O armazenamento redundante de zona maximizará a resiliência na região para os dados de perfil do usuário. O ZRS é suportado para compartilhamentos de arquivos premium por meio do tipo de conta de armazenamento 'FileStorage'. O ZRS é suportado em contas de armazenamento v2 de uso geral padrão. O uso do armazenamento redundante de zona deve ser emparelhado com a implantação redundante de zona de hosts de sessão em cada pool de hosts. </t>
         </is>
       </c>
       <c r="E20" s="21" t="inlineStr">
@@ -1725,7 +1690,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://learn.microsoft.com/azure/storage/files/files-redundancy#zone-redundant-storage</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1733,7 +1698,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
+          <t>10d4e875-d502-4142-a795-f2b6eff34f88</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1744,22 +1709,22 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Imagem/s dourada</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Estimar o número de imagens douradas que serão necessárias</t>
+          <t>Revise a estratégia de recuperação de desastres do Azure NetApp Files</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>Eles usarão o mascaramento do aplicativo fslogix que se prestaria a uma única imagem, ou várias imagens com diferentes aplicações preparadas: o que é necessário que mais de uma imagem seja usada?</t>
+          <t>Para recuperação de desastres local, o backup nativo do Azure NetApp Files (ANF) está disponível. O ANF é essencialmente redundante localmente, então, para recuperação de desastres geográficos entre regiões, é necessário usar um mecanismo adicional que é a CRR (replicação entre regiões) https://learn.microsoft.com/en-us/azure/azure-netapp-files/cross-region-replication-create-peering. Atualmente, o ANF não fornece replicação nem redundância em diferentes zonas de disponibilidade (AZ), apenas a possibilidade de selecionar em qual AZ único colocar o volume ANF: https://learn.microsoft.com/en-us/azure/azure-netapp-files/manage-availability-zone-volume-placement.</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -1775,7 +1740,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/cross-region-replication-create-peering</t>
         </is>
       </c>
       <c r="I21" s="15" t="n"/>
@@ -1783,7 +1748,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
+          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1799,22 +1764,22 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Imagem/s dourada</t>
+          <t>Imagens de Ouro</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Determine qual(is) imagem(ns) do sistema operacional você usará para a implantação do Pool de Hosts</t>
+          <t>Determinar como os aplicativos serão implantados nos pools de hosts AVD</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Determine qual sistema operacional convidado será usado para implantar cada pool de hosts: Windows 10 vs. Windows Server, Marketplace vs. imagens personalizadas</t>
+          <t>Os aplicativos podem ser pré-instalados na(s) imagem(ns) dourada(s), podem ser anexados usando o recurso MSIX &amp; AppAttach ou distribuídos para os hosts de sessão após a implantação do pool de hosts usando métodos tradicionais de distribuição de software.</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1825,7 +1790,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-golden-image</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1833,7 +1798,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
+          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1849,22 +1814,22 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Imagem/s dourada</t>
+          <t>Imagens de Ouro</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Se uma imagem personalizada será usada, determine se há um processo de compilação automatizado?</t>
+          <t>Estimar o número de imagens douradas que serão necessárias</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se nada existir, considere usar o Construtor de Imagens do Azure para automatizar o processo de compilação. </t>
+          <t>Várias imagens douradas podem ser necessárias para suportar diferentes versões e/ou configurações do sistema operacional, diferentes grupos de aplicativos que devem ser separados e não podem ser incluídos em uma única imagem.</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1875,7 +1840,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-golden-image</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1883,7 +1848,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
+          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1899,22 +1864,22 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Imagem/s dourada</t>
+          <t>Imagens de Ouro</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Se uma imagem personalizada for usada, existe um plano para organizar e gerenciar o ciclo de vida de suas imagens?</t>
+          <t>Determine qual(is) imagem(ns) do sistema operacional você usará para a implantação do Pool de Hosts</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Avalie a Galeria de Computação do Azure.</t>
+          <t>Determine qual sistema operacional convidado será usado para implantar cada pool de hosts: Windows 10 vs. Windows Server, Marketplace vs. imagens personalizadas</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1925,7 +1890,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/prerequisites?tabs=portal#operating-systems-and-licenses</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1933,7 +1898,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
+          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1949,22 +1914,22 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Imagem/s dourada</t>
+          <t>Imagens de Ouro</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Se a imagem personalizada for usada, verifique as práticas recomendadas para o AVD sobre como criar a imagem mestra</t>
+          <t>Selecione o armazenamento adequado para imagens personalizadas</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Existem algumas práticas recomendadas conhecidas e recomendações para a personalização da imagem dourada, certifique-se de verificar o artigo referenciado. </t>
+          <t>As imagens personalizadas da VM do Azure podem ser criadas e armazenadas de diferentes maneiras: em uma Galeria de Computação do Azure, como um objeto de imagem gerenciado ou como um disco gerenciado no armazenamento. A maneira recomendada é usar a Galeria de Computação do Azure.</t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1975,7 +1940,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/shared-image-galleries</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1983,7 +1948,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
+          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1999,22 +1964,22 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>Imagem/s dourada</t>
+          <t>Imagens de Ouro</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Avaliar o uso da Virtual-Desktop-Optimization-Tool</t>
+          <t>Projete seu processo de compilação para imagens personalizadas</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Este conjunto de ferramentas foi criado para aplicar automaticamente a configuração referenciada no white paper 'Otimizando o Windows 10, versão 2004 para uma função VDI (Virtual Desktop Infrastructure)': https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. O uso da ferramenta e/ou otimizações mencionadas no white-paper devem ser considerados. </t>
+          <t>Se imagens personalizadas forem usadas, planeje um processo de compilação automatizado. Se não existir uma fábrica de software pré-existente, considere usar Modelos de Imagem Personalizados e/ou o Construtor de Imagens do Azure para automatizar o processo de compilação.</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2025,7 +1990,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-custom-image-templates</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -2033,7 +1998,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
+          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2049,22 +2014,22 @@
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>Imagem/s dourada</t>
+          <t>Imagens de Ouro</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Planejar/avaliar a estratégia de gerenciamento de configuração do host de sessão AVD</t>
+          <t>Se a imagem personalizada for usada, verifique as práticas recomendadas para o AVD sobre como criar uma imagem personalizada</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Determine se uma ferramenta de gerenciamento de configuração já está em vigor para gerenciar a configuração da VM do Pool de Hosts após a implantação inicial, por exemplo, SCCM, MEM/Intune, GPO, soluções de terceiros 3rd.</t>
+          <t>Existem algumas práticas recomendadas conhecidas e recomendações para a personalização da imagem dourada, certifique-se de verificar o artigo referenciado.</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2075,14 +2040,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-golden-image</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
+          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2098,22 +2063,22 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Imagem/s dourada</t>
+          <t>Imagens de Ouro</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Determinar se o Microsoft OneDrive fará parte da implantação do AVD</t>
+          <t>Inclua a versão mais recente do FSLogix no processo de atualização da imagem dourada</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Revise o artigo fornecido e verifique se os recursos 'Redirecionamento de pasta conhecida' e 'Arquivos sob demanda' do OneDrive devem ser considerados e, eventualmente, adotados.</t>
+          <t>A pilha FSLogix instalada em hosts de sessão AVD não fornece capacidade de atualização automática. Por esta razão, recomenda-se baixar a versão mais recente do FSLogix e incluir no processo de atualização da imagem dourada.</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2124,14 +2089,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
+          <t>https://learn.microsoft.com/fslogix/how-to-install-fslogix</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
+          <t>ed5c9027-dd1a-4343-86ca-52b199223186</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2147,22 +2112,22 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Imagem/s dourada</t>
+          <t>Imagens de Ouro</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Determinar se o Microsoft Teams fará parte da implantação do AVD</t>
+          <t>Avaliar o uso da Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de revisar este artigo e usar a versão mais recente, revisar e avaliar as exclusões do Teams para reduzir o tamanho do perfil.</t>
+          <t xml:space="preserve">Este conjunto de ferramentas foi criado para aplicar automaticamente a configuração referenciada no white paper 'Otimizando o Windows 10, versão 2004 para uma função VDI (Virtual Desktop Infrastructure)': https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. O uso da ferramenta e/ou otimizações mencionadas no white-paper devem ser considerados. </t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2173,14 +2138,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
+          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
+          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2196,22 +2161,22 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Imagens de Ouro</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Não use a mesma conta/compartilhamento de armazenamento que os contêineres de perfil/escritório </t>
+          <t>Determinar se o Microsoft OneDrive fará parte da implantação do AVD</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">É altamente recomendável usar contas/compartilhamentos de armazenamento separados para armazenar pacotes MSIX. Se necessário, o armazenamento pode ser expandido de forma independente e não ser afetado pelas atividades de E/S do perfil. O Azure oferece várias opções de armazenamento que podem ser usadas para anexação de aplicativo MISX. Recomendamos o uso dos Arquivos do Azure ou dos Arquivos do Azure NetApp, pois essas opções oferecem o melhor valor entre custo e sobrecarga de gerenciamento. </t>
+          <t>Se o OneDrive for usado e incluído em uma imagem dourada, siga o procedimento de configuração relatado no artigo complementar na seção "Mais informações". Não está no escopo desta lista de verificação do AVD, mas otimizações do OneDrive como 'Redirecionamento de pasta conhecida' e 'Arquivos sob demanda' devem ser avaliadas para reduzir o espaço usado nos perfis do FSLogix e fornecer uma melhor experiência do usuário. Atualmente, o OneDrive não é compatível com Aplicativos Remotos.</t>
         </is>
       </c>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2222,14 +2187,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/install-office-on-wvd-master-image#install-onedrive-in-per-machine-mode</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
+          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2245,22 +2210,22 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Imagens de Ouro</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Revise as considerações de desempenho do MSIX</t>
+          <t>Determinar se o Microsoft Teams fará parte da implantação do AVD</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>No artigo referenciado, relatamos poucas, mas importantes considerações de desempenho para o uso de MSIX no contexto AVD, certifique-se de revisar cuidadosamente.</t>
+          <t>Certifique-se de revisar os requisitos e o procedimento de configuração contidos no artigo complementar na coluna 'Mais informações'. Como as atualizações automáticas do Teams serão desabilitadas, é recomendável verificar e incluir a versão mais recente do Teams no processo de atualização da imagem dourada.</t>
         </is>
       </c>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2271,14 +2236,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
+          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2294,22 +2259,22 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>MSIX &amp; AppAttach</t>
+          <t>Imagens de Ouro</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Verificar as permissões adequadas de host de sessão para compartilhamento MSIX</t>
+          <t>Avaliar o requisito de suporte a vários idiomas</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>A anexação do aplicativo MSIX requer permissões somente leitura para acessar o compartilhamento de arquivos. Se você estiver armazenando seus aplicativos MSIX nos Arquivos do Azure, para seus hosts de sessão, precisará atribuir a todas as VMs de host de sessão permissões RBAC (controle de acesso baseado em função) de conta de armazenamento e NTFS (New Technology File System) de compartilhamento de arquivos no compartilhamento.</t>
+          <t>O AVD pode oferecer suporte a usuários com requisitos de idioma e localização diferentes no mesmo pool de hosts. Isso pode ser feito personalizando imagens douradas para garantir que os usuários possam selecionar o idioma que precisarem. O procedimento para configurar pacotes de idiomas adicionais no Windows 11 está documentado no artigo de referência.</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2320,7 +2285,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/windows-11-language-packs</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2328,7 +2293,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
+          <t>7c336f3b-822a-498e-8cd1-667d1150df4a</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2349,12 +2314,12 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Pacotes MSIX para aplicativos de terceiros</t>
+          <t>Não use a mesma conta/compartilhamento de armazenamento que os perfis FSLogix</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>O fornecedor de software de terceiros 3 deve fornecer um pacote MSIX, não é recomendado que o cliente tente o procedimento de conversão sem o suporte adequado do proprietário do aplicativo.</t>
+          <t xml:space="preserve">É altamente recomendável usar contas/compartilhamentos de armazenamento separados para armazenar pacotes MSIX. Se necessário, o armazenamento pode ser expandido de forma independente e não ser afetado pelas atividades de E/S do perfil. O Azure oferece várias opções de armazenamento que podem ser usadas para anexação de aplicativo MISX. Recomendamos o uso dos Arquivos do Azure ou dos Arquivos do Azure NetApp, pois essas opções oferecem o melhor valor entre custo e sobrecarga de gerenciamento. </t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -2370,7 +2335,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2378,7 +2343,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
+          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2399,17 +2364,17 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Desabilitar a atualização automática para pacotes MSIX</t>
+          <t>Revise as considerações de desempenho do MSIX</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>A anexação de aplicativo MSIX não oferece suporte à atualização automática para aplicativos MSIX e, em seguida, deve ser desabilitada.</t>
+          <t>No artigo referenciado, relatamos poucas, mas importantes considerações de desempenho para o uso de MSIX no contexto AVD, certifique-se de revisar cuidadosamente.</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2420,7 +2385,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2428,7 +2393,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2449,12 +2414,12 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Revise o suporte a sistemas operacionais</t>
+          <t>Verificar as permissões adequadas de host de sessão para compartilhamento MSIX</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>Para aproveitar o MSIX &amp; App Attach, a imagem do sistema operacional convidado para o pool AVD Host deve ser Windows 10 Enterprise ou Windows 10 Enterprise Multi-session, versão 2004 ou posterior.</t>
+          <t>A anexação do aplicativo MSIX requer permissões somente leitura para acessar o compartilhamento de arquivos. Se você estiver armazenando seus aplicativos MSIX nos Arquivos do Azure, para seus hosts de sessão, precisará atribuir a todas as VMs de host de sessão permissões RBAC (controle de acesso baseado em função) de conta de armazenamento e NTFS (New Technology File System) de compartilhamento de arquivos no compartilhamento.</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2470,7 +2435,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2478,7 +2443,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
+          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2494,22 +2459,22 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Host da Sessão</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Avaliar o uso da VM Gen2 para implantação do Pool de Hosts</t>
+          <t>Pacotes MSIX para aplicativos de terceiros</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>Depois de selecionada a SKU da VM que será usada para a implantação do Pool de Hosts, é recomendável usar o tipo Gen2 da SKU para maior segurança e recursos aprimorados.</t>
+          <t>O fornecedor de software de terceiros 3 deve fornecer um pacote MSIX, não é recomendado que o cliente tente o procedimento de conversão sem o suporte adequado do proprietário do aplicativo.</t>
         </is>
       </c>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2520,7 +2485,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2528,7 +2493,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
+          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2539,27 +2504,27 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Determinar o tipo de pool de hosts a ser usado</t>
+          <t>Desabilitar a atualização automática para pacotes MSIX</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>Compartilhado/Compartilhado ou Dedicado/Pessoal</t>
+          <t>A anexação de aplicativos MSIX não oferece suporte à atualização automática para aplicativos MSIX, portanto, eles devem ser desabilitados.</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2570,7 +2535,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2578,7 +2543,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>8468c55a-775c-46ee-a5b8-6ad8844ce3b2</t>
+          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2589,22 +2554,22 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>MSIX &amp; AppAttach</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Para o tipo de Pool de Host Pessoal, decida sobre o tipo de atribuição</t>
+          <t>Revise o suporte a sistemas operacionais</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>Confirme se a diferença entre atribuição automática e direta é bem compreendida e se a opção selecionada é apropriada para o cenário em questão.</t>
+          <t>Para aproveitar o MSIX &amp; App Attach, a imagem do sistema operacional convidado para o pool AVD Host deve ser Windows 10/11 Enterprise ou Windows 10/11 Enterprise Multi-session, versão 2004 ou posterior.</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2620,7 +2585,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2628,7 +2593,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
+          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2639,22 +2604,22 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Host da Sessão</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Para o tipo de Pool de Hosts em Pool, decida sobre o método de balanceamento de carga</t>
+          <t>Avaliar o uso da VM Gen2 para implantação do Pool de Hosts</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verifique qual usar e as opções disponíveis, esteja ciente de que, se o dimensionamento automático for usado, ele o define como amplitude primeiro. </t>
+          <t>Depois de selecionada a SKU da VM que será usada para a implantação do Pool de Hosts, é recomendável usar o tipo Gen2 da SKU para maior segurança e recursos aprimorados.</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
@@ -2670,7 +2635,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/generation-2</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2678,7 +2643,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
+          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2689,27 +2654,27 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>Fundação</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Planejamento de Capacidade</t>
+          <t>Host da Sessão</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estimar o número de pools de hosts diferentes a serem implantados </t>
+          <t>Considere o uso de MMR (Redirecionamento de Multimídia) para obter melhor desempenho de vídeo no navegador</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>Com base em seus critérios de seleção, quantos Pools de Hosts você precisaria? Você deve considerar ter vários se:? Várias imagens do sistema operacional? Várias regiões? É necessário HW diferente? Tipo de pool de hosts diferente (compartilhado versus pessoal)? Diferentes requisitos de usuário e SLA (Principais usuários, Execs, Office Worker vs. Desenvolvedores, etc.)? Configurações de RDP diferentes (aplicadas no nível do Pool de Hosts), consulte https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties? Número necessário de VMs no pool de hosts excedendo os recursos máximos</t>
+          <t>O MMR redireciona o conteúdo de mídia do Host da Sessão para sua máquina local para processamento e renderização mais rápidos. Ele só funciona quando você reproduz conteúdo de mídia no Microsoft Edge ou no Google Chrome. Consulte a URL vinculada para obter mais detalhes.</t>
         </is>
       </c>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2720,7 +2685,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/multimedia-redirection</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2728,7 +2693,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
+          <t>adecb27f-dc40-40f5-aca2-0090f633b1c9</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2749,17 +2714,17 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Execute o teste de desempenho da carga de trabalho para determinar a melhor SKU de VM do Azure e o tamanho a ser usado (determine o número de hosts por pool)</t>
+          <t>Determinar o tipo de pool de hosts a ser usado</t>
         </is>
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t>Use o link fornecido para definir um ponto de partida para a decisão de SKU e, em seguida, valide usando um teste de desempenho. Certifique-se de que um mínimo de 4 núcleos para Produção seja selecionado por Host de Sessão (várias sessões)</t>
+          <t>Um pool de hosts é uma coleção de máquinas virtuais do Azure que se registram na Área de Trabalho Virtual do Azure como hosts de sessão. Um pool de hosts pode ser de dois tipos: Pessoal e Agrupado. Qual tipo usar e quantos é uma decisão de design fundamental que deve ser documentada e validada. Consulte o artigo complementar na coluna "Mais informações" para obter mais detalhes.</t>
         </is>
       </c>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2770,7 +2735,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/terminology#host-pools</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2778,7 +2743,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
+          <t>8468c55a-775c-46ee-a5b8-6ad8844ce3b2</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2799,12 +2764,12 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Verificar os limites de escalabilidade do AVD para o ambiente</t>
+          <t xml:space="preserve">Estimar o número de pools de hosts diferentes a serem implantados </t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">É fundamental verificar a capacidade e os limites da AVD relatados no artigo referenciado. </t>
+          <t>Use seus critérios de design para determinar o número de Pools de Hosts a serem implantados. Isso será baseado em fatores como diferentes imagens do sistema operacional, suporte a várias regiões, diferenças de hardware de VM convidada (como suporte a GPU ou não), diferentes expectativas do usuário e requisitos de tempo de atividade (exemplos podem ser 'Executivos', 'Trabalhadores do Office', 'Desenvolvedores', etc.) e configurações de RDP do Pool de Hosts (como suporte a redirecionamento de unidade). Isso determinará o número de pools de hosts, bem como quantos hosts estarão em cada pool.</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
@@ -2820,7 +2785,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/terminology?WT.mc_id=Portal-fx#host-pools</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2828,7 +2793,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
+          <t>4e98495f-d3c0-4af2-aa59-a793395a32a7</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2849,17 +2814,17 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Determine se os hosts de sessão exigirão GPU</t>
+          <t>Para o tipo de Pool de Host Pessoal, selecione o tipo de atribuição apropriado</t>
         </is>
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pools de hosts com GPU exigem configuração especial, certifique-se de revisar o artigo referenciado. </t>
+          <t>Confirme se a diferença entre atribuição automática e direta é bem compreendida e se a opção selecionada é apropriada para o cenário em questão. Automático é a configuração padrão.</t>
         </is>
       </c>
       <c r="E43" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2870,7 +2835,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2878,7 +2843,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
+          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2899,12 +2864,12 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Recomendado para usar SKUs de VM capazes de aproveitar o recurso de Rede Acelerada no Azure.</t>
+          <t>Para o tipo Pool de Hosts em Pool, selecione o melhor método de balanceamento de carga</t>
         </is>
       </c>
       <c r="D44" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sempre que possível, recomenda-se aproveitar os SKUs de VM com o recurso de rede acelerada. Hoje pnly Windows Server OS são suportados (veja a lista no artigo), no futuro Windows Client OS talvez também incluído. </t>
+          <t>Verifique qual usar e as opções disponíveis, o dimensionamento automático ignora os algoritmos de balanceamento de carga existentes.</t>
         </is>
       </c>
       <c r="E44" s="21" t="inlineStr">
@@ -2920,7 +2885,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2928,7 +2893,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
+          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2944,17 +2909,17 @@
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Clientes &amp; Usuários</t>
+          <t>Planejamento de Capacidade</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Avaliar quantos usuários se conectarão ao AVD e de quais regiões</t>
+          <t>Para o tipo Pool de Hosts em Pool, as VMs não devem ter mais de 32 núcleos</t>
         </is>
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para o planejamento e a implantação adequados, é importante avaliar o número máximo de usuários e a média de sessões simultâneas. </t>
+          <t>O número de núcleos aumenta, a sobrecarga de sincronização do sistema também aumenta. Especialmente para a entrada de vários usuários simultaneamente. Certifique-se de não usar uma VM muito grande para o host da sessão</t>
         </is>
       </c>
       <c r="E45" s="21" t="inlineStr">
@@ -2970,14 +2935,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://learn.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
+          <t>b3724959-4943-4577-a3a9-e10ff6345f24</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2993,22 +2958,22 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Clientes &amp; Usuários</t>
+          <t>Planejamento de Capacidade</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Determine se todos os usuários terão o mesmo conjunto de aplicativos e/ou diferentes configurações de Pool de Hosts e/ou imagens do sistema operacional</t>
+          <t>Não use o mesmo Pool de Hosts para oferecer áreas de trabalho completas (DAG) e Aplicativos Remotos para o mesmo conjunto de usuários</t>
         </is>
       </c>
       <c r="D46" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mutiple Host Pools talvez necessário para suportar diferentes conjuntos de usuários, recomenda-se estimar quantos serão necessários. </t>
+          <t>O AVD não oferece suporte à atribuição do RemoteApp e do Grupo de Aplicativos de Área de Trabalho (DAG) em um único pool de hosts ao mesmo conjunto de usuários. Isso fará com que um único usuário tenha duas sessões de usuário em um único pool de hosts. Os usuários não devem ter duas sessões ativas ao mesmo tempo no mesmo pool de hosts usando o mesmo perfil.</t>
         </is>
       </c>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3019,7 +2984,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/terminology?WT.mc_id=Portal-fx#application-groups</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -3027,7 +2992,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
+          <t>b384b7ed-1cdd-457e-a2cd-c8d4d55bc144</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3043,22 +3008,22 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Clientes &amp; Usuários</t>
+          <t>Planejamento de Capacidade</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Avaliar dependências externas para cada Pool de Hosts</t>
+          <t>Estimar o número de Grupos de Aplicativos necessários em todos os Pools de Hosts no locatário do Microsoft Entra ID</t>
         </is>
       </c>
       <c r="D47" s="21" t="inlineStr">
         <is>
-          <t>As dependências de recursos externos ao pool AVD devem ser avaliadas e revisadas, por exemplo, Active Directory, compartilhamentos de arquivos externos ou outro armazenamento, serviços e recursos locais, componentes de infraestrutura de rede como VPN e ou Express Route, serviços externos e componentes de terceiros 3rd. Para todos esses recursos, a latência do AVD Host Pool precisa ser avaliada e a conectividade considerada. Além disso, as considerações de BCDR também precisam ser aplicadas a essas dependências.</t>
+          <t>Há um limite de 500 Grupos de Aplicativos que podem ser criados no AVD para cada locatário do Microsoft Entra ID (antigo Azure AD). O limite pode ser aumentado (consulte o link complementar para obter detalhes), mas não é recomendado.</t>
         </is>
       </c>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3069,7 +3034,7 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits#azure-virtual-desktop-service-limits</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -3077,7 +3042,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
+          <t>971cc4a4-b1f7-4c12-90e0-1ad96808f00c</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3093,22 +3058,22 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Clientes &amp; Usuários</t>
+          <t>Planejamento de Capacidade</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Revise o sistema operacional do cliente usado e o tipo de cliente AVD</t>
+          <t>Estimar o número de aplicativos para cada grupo de aplicativos</t>
         </is>
       </c>
       <c r="D48" s="21" t="inlineStr">
         <is>
-          <t>Revise as limitações de cada cliente e compare várias opções quando possível.</t>
+          <t>Os aplicativos são agrupados em Grupos de Aplicativos como contêineres para publicação e atribuição de permissões: recomendamos que você não publique mais de 50 aplicativos por grupo de aplicativos.</t>
         </is>
       </c>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3119,14 +3084,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop#considerations</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
+          <t>fa9f2895-473d-439b-ab8e-5a5cf92c7f32</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3142,17 +3107,17 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Clientes &amp; Usuários</t>
+          <t>Planejamento de Capacidade</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Verificar os requisitos de licenciamento</t>
+          <t>Avaliar o uso do FSLogix para pools de hosts pessoais</t>
         </is>
       </c>
       <c r="D49" s="21" t="inlineStr">
         <is>
-          <t>Os clientes que estão devidamente licenciados para executar cargas de trabalho da Área de Trabalho Virtual do Windows estão qualificados para aplicar uma licença do Windows às suas máquinas virtuais de host de sessão e executá-las sem pagar por outra licença.</t>
+          <t>O FSLogix não é necessário para Pools de Host Pessoal, pois cada VM é atribuída estaticamente a um único usuário, portanto, não há necessidade imediata de uma solução de perfil móvel. Em alguns cenários de uso, o FSLogix pode ajudar. Por exemplo, uma VM pode ser reatribuída, ou o usuário movido para outra área de trabalho, ou o perfil móvel pode ser usado para salvar o perfil de usuário em um local diferente para fins de DR.</t>
         </is>
       </c>
       <c r="E49" s="21" t="inlineStr">
@@ -3168,14 +3133,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type?tabs=azure#reassign-a-personal-desktop</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
+          <t>38b19ab6-0693-4992-9394-5590883916ec</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3191,17 +3156,17 @@
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Clientes &amp; Usuários</t>
+          <t>Planejamento de Capacidade</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Execute um PoC para testar a experiência do usuário de ponta a ponta para verificar o impacto causado pela latência da rede</t>
+          <t>Execute o teste de desempenho da carga de trabalho para determinar a melhor SKU de VM do Azure e o tamanho a ser usado</t>
         </is>
       </c>
       <c r="D50" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dependendo dos locais do usuário e da implantação da região AVD, os usuários podem ter uma experiência não ideal, portanto, é importante testar o mais rápido possível em um ambiente PoC pequeno. </t>
+          <t>Use o link fornecido para definir um ponto de partida para a decisão de SKU e, em seguida, valide usando um teste de desempenho. Certifique-se de que um mínimo de quatro núcleos para Produção seja selecionado por Host de Sessão (várias sessões)</t>
         </is>
       </c>
       <c r="E50" s="21" t="inlineStr">
@@ -3217,7 +3182,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -3225,7 +3190,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
+          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3241,22 +3206,22 @@
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>Clientes &amp; Usuários</t>
+          <t>Planejamento de Capacidade</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine se os usuários acessarão o AVD usando áreas de trabalho completas e/ou aplicativos remotos </t>
+          <t>Verificar os limites de escalabilidade do AVD para o ambiente</t>
         </is>
       </c>
       <c r="D51" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine se os usuários receberão áreas de trabalho completas e/ou Grupos de Aplicativos Remotos. </t>
+          <t xml:space="preserve">É fundamental verificar a capacidade e os limites de AVD relatados no artigo referenciado. Limites e limites adicionais se aplicam ao gerenciamento de rede, computação, armazenamento e serviços. </t>
         </is>
       </c>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3267,7 +3232,7 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop#considerations</t>
         </is>
       </c>
       <c r="I51" s="15" t="n"/>
@@ -3275,7 +3240,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
+          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3291,17 +3256,17 @@
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>Clientes &amp; Usuários</t>
+          <t>Planejamento de Capacidade</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Todos os usuários terão as mesmas configurações de RDP? </t>
+          <t>Determine se os hosts de sessão exigirão GPU</t>
         </is>
       </c>
       <c r="D52" s="21" t="inlineStr">
         <is>
-          <t>No momento, as configurações de RDP só podem ser definidas no nível do pool de hosts, não por usuário/grupo.</t>
+          <t>Pools de hosts com GPU exigem configuração especial, certifique-se de revisar o artigo referenciado.</t>
         </is>
       </c>
       <c r="E52" s="21" t="inlineStr">
@@ -3317,7 +3282,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3325,7 +3290,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
+          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3341,22 +3306,22 @@
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>Clientes &amp; Usuários</t>
+          <t>Planejamento de Capacidade</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Avaliar o RDP ShortPath para clientes que se conectam a partir de redes internas gerenciadas</t>
+          <t>Usar SKUs de VM do Azure capazes de aproveitar a Rede Acelerada</t>
         </is>
       </c>
       <c r="D53" s="21" t="inlineStr">
         <is>
-          <t>RDP Shortpath para redes gerenciadas é um recurso da Área de Trabalho Virtual do Azure que estabelece um transporte direto baseado em UDP entre o Cliente de Área de Trabalho Remota e o host de sessão. A remoção do relé extra reduz o tempo de ida e volta, o que melhora a experiência do usuário com aplicativos e métodos de entrada sensíveis à latência. Para dar suporte ao RDP Shortpath, o cliente da Área de Trabalho Virtual do Azure precisa de uma linha de visão direta para o host da sessão, deve estar executando o Windows 10 ou o Windows 7 e ter o cliente da Área de Trabalho do Windows instalado.</t>
+          <t>Sempre que possível, recomenda-se aproveitar os SKUs de VM com o recurso de rede acelerada. Esse recurso requer versões específicas de SKU/tamanho e SO da VM, consulte a lista e o requisito no artigo complementar.</t>
         </is>
       </c>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3367,14 +3332,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
+          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3390,22 +3355,22 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Determine em qual região/s do Azure AVD Host Pools serão implantados.</t>
+          <t>Avaliar quantos usuários se conectarão ao AVD e de quais regiões</t>
         </is>
       </c>
       <c r="D54" s="21" t="inlineStr">
         <is>
-          <t>O AVD é um serviço não regional, os Pools de Hosts podem ser criados em qualquer região, o redirecionamento automático do front-end mais próximo acontecerá automaticamente.</t>
+          <t>Para planejamento e implantação adequados, é importante avaliar o número máximo de usuários simultâneos e totais para cada Pool de Hosts. Além disso, usuários de diferentes regiões podem exigir pools de hosts diferentes para garantir a melhor experiência do usuário.</t>
         </is>
       </c>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3416,7 +3381,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3424,7 +3389,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
+          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3440,17 +3405,17 @@
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Determinar se a conectividade híbrida é necessária para se conectar ao ambiente local</t>
+          <t>Avaliar dependências externas para cada Pool de Hosts</t>
         </is>
       </c>
       <c r="D55" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se necessário para se conectar ao ambiente local, avalie a opção de conectividade atual ou planeje a conectividade necessária. </t>
+          <t>As dependências de recursos externos ao pool AVD devem ser avaliadas e revisadas, por exemplo, Active Directory, compartilhamentos de arquivos externos ou outro armazenamento, serviços e recursos locais, componentes de infraestrutura de rede como VPN e ou ExpressRoute, serviços externos e componentes de terceiros 3rd. Para todos esses recursos, a latência do AVD Host Pool precisa ser avaliada e a conectividade considerada. Além disso, as considerações de BCDR também precisam ser aplicadas a essas dependências.</t>
         </is>
       </c>
       <c r="E55" s="21" t="inlineStr">
@@ -3466,14 +3431,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop?toc=%2Fazure%2Fvirtual-desktop%2Ftoc.json&amp;bc=%2Fazure%2Fvirtual-desktop%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
+          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3489,22 +3454,22 @@
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Você avaliou a latência entre o local dos usuários e a infraestrutura do Azure AVD?</t>
+          <t>Revisar o sistema operacional do cliente do usuário usado e o tipo de cliente AVD</t>
         </is>
       </c>
       <c r="D56" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Execute a ferramenta 'Estimador da Experiência de Área de Trabalho Virtual do Windows' para selecionar a melhor região do Azure para implantar Pools de Hosts. Além da latência de 150ms, a experiência do usuário pode não ser a ideal. </t>
+          <t>AVD oferece uma variedade de tipos de clientes (gordo, magro, web) para se conectar em diferentes plataformas (Windows, MacOS, iOS, Android). Revise as limitações de cada cliente e compare várias opções quando possível.</t>
         </is>
       </c>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3515,14 +3480,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-desktop/users/connect-windows</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
+          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3538,22 +3503,22 @@
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Determinar o local dos metadados para o serviço AVD</t>
+          <t>Executar um PoC para validar a experiência do usuário de ponta a ponta e o impacto da latência da rede</t>
         </is>
       </c>
       <c r="D57" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">O AVD armazena metadados apenas para executar o serviço em locais geográficos específicos, determinar o que está disponível atualmente e, se adequado, com base nos requisitos do cliente. </t>
+          <t>Dependendo dos locais do usuário e da implantação da região AVD, os usuários podem ter uma experiência não ideal, portanto, é importante testar o mais rápido possível em um ambiente PoC pequeno. Execute a ferramenta 'Azure Virtual Desktop Experience Estimator' para selecionar a melhor região do Azure para implantar Pools de Host. Além da latência de 150ms, a experiência do usuário pode não ser a ideal.</t>
         </is>
       </c>
       <c r="E57" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3564,14 +3529,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
+          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3587,17 +3552,17 @@
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>Geral</t>
+          <t>Clientes &amp; Usuários</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Verificar cotas e disponibilidade do Azure para tamanhos de VM específicos nas regiões selecionadas</t>
+          <t>Avaliar e documentar configurações de RDP para todos os grupos de usuários</t>
         </is>
       </c>
       <c r="D58" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verifique se há SKUs de VM específicos, especialmente se você precisar de GPU ou SKUs de alta especificação e, eventualmente, disponibilidade dos Arquivos NetApp do Azure, se usados. </t>
+          <t>No momento, as configurações de RDP só podem ser definidas no nível do pool de hosts, não por usuário/grupo. Se forem necessárias configurações diferentes para diferentes conjuntos de usuários, é recomendável criar vários Pools de Hosts.</t>
         </is>
       </c>
       <c r="E58" s="21" t="inlineStr">
@@ -3613,14 +3578,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
+          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3641,17 +3606,17 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Verificar a disponibilidade da zona de disponibilidade (AZ) na região selecionada</t>
+          <t>Determine em quais regiões do Azure os Pools de Hosts AVD serão implantados.</t>
         </is>
       </c>
       <c r="D59" s="21" t="inlineStr">
         <is>
-          <t>Consulte a seção BCDR para obter mais detalhes.</t>
+          <t>O AVD é um serviço não regional, os Pools de Hosts podem ser criados em qualquer região, o redirecionamento automático do front-end mais próximo acontecerá automaticamente.</t>
         </is>
       </c>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3662,14 +3627,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
+          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3680,22 +3645,22 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Diretório Ativo</t>
+          <t>Geral</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Criar pelo menos dois DCs (Controladores de Domínio) do Active Directory no ambiente VNET do Azure perto do Pool de Hosts AVD</t>
+          <t>Determinar o local dos metadados para o serviço AVD</t>
         </is>
       </c>
       <c r="D60" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Os DCs do AD no Azure são recomendados para reduzir a latência para usuários que fazem logon em hosts de sessão AVD e, eventualmente, para a integração do Azure NetApp Files e do AD. O ADC precisa ser capaz de falar com DCs para TODOS os domínios filho. Como alternativa, a conectividade local deve ser usada para alcançar os DCs do AD. </t>
+          <t>O AVD deve armazenar metadados para dar suporte ao serviço; isso é armazenado na geografia especificada. No entanto, isso é independente das regiões onde os Pools de Host estão localizados.</t>
         </is>
       </c>
       <c r="E60" s="21" t="inlineStr">
@@ -3711,14 +3676,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
+          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3729,22 +3694,22 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Fundação</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Diretório Ativo</t>
+          <t>Geral</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Criar uma UO específica no Active Directory para cada Pool de Hosts</t>
+          <t>Verificar cotas e disponibilidade do Azure para tamanhos e tipos de VM específicos nas regiões selecionadas</t>
         </is>
       </c>
       <c r="D61" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recomendado para criar uma UO separada por Pool de Hosts em uma hierarquia de UO separada. Essas UOs conterão contas de máquina de hosts de sessão AVD. </t>
+          <t>Verifique se há SKUs de VM específicos, especialmente se você precisar de GPU ou SKUs de alta especificação e, eventualmente, Arquivos NetApp do Azure, se usados.</t>
         </is>
       </c>
       <c r="E61" s="21" t="inlineStr">
@@ -3760,14 +3725,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
+          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3788,12 +3753,12 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Revise o GPO de domínio que será aplicado à UO e às funcionalidades de VM do pool de hosts que afetam</t>
+          <t>Criar pelo menos dois DCs (Controladores de Domínio) do Active Directory no ambiente de Rede Virtual do Azure próximo ao Pool de Hosts AVD</t>
         </is>
       </c>
       <c r="D62" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Analise cuidadosamente e, eventualmente, bloqueie/filtre a herança de GPOs para as UOs que contêm pools de hosts AVD. </t>
+          <t>Os DCs do AD no Azure são recomendados (pelo menos dois em AZ diferentes) para reduzir a latência para usuários que fazem logon em hosts de sessão AVD e, eventualmente, para a integração do Azure NetApp Files e do AD. Um controlador de domínio precisa ser capaz de falar com os DCs para TODOS os domínios filho. Como alternativa, a conectividade local deve ser usada para alcançar os DCs do AD.</t>
         </is>
       </c>
       <c r="E62" s="21" t="inlineStr">
@@ -3809,14 +3774,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>7126504b-b47a-4393-a080-327294798b15</t>
+          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3837,12 +3802,12 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Criar uma conta de usuário dedicada com apenas permissões para ingressar a VM no domínio</t>
+          <t>Criar uma UO específica no Active Directory para cada Pool de Hosts</t>
         </is>
       </c>
       <c r="D63" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recomendado para ter uma conta dedicada específica com permissões específicas e sem a limitação padrão de 10 junções. </t>
+          <t xml:space="preserve">Recomendado para criar uma UO separada por Pool de Hosts em uma hierarquia de UO separada. Essas UOs conterão contas de máquina de hosts de sessão AVD. </t>
         </is>
       </c>
       <c r="E63" s="21" t="inlineStr">
@@ -3866,7 +3831,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
+          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3887,12 +3852,12 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Crie um grupo de usuários de domínio para cada conjunto de usuários que terá acesso a cada Grupo de Aplicativos do Pool de Hosts (DAG ou RAG)</t>
+          <t>Revise os GPOs de domínio que serão aplicados à UO e afetarão as funcionalidades de hosts de sessão do pool de hosts</t>
         </is>
       </c>
       <c r="D64" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evite conceder acesso por usuário, use grupos do AD e replique-os usando o ADC no Azure AD. </t>
+          <t xml:space="preserve">Analise cuidadosamente e potencialmente bloqueie/filtre a herança de GPOs para as UOs que contêm pools de hosts AVD. </t>
         </is>
       </c>
       <c r="E64" s="21" t="inlineStr">
@@ -3908,7 +3873,7 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
         </is>
       </c>
       <c r="I64" s="15" t="n"/>
@@ -3916,7 +3881,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
+          <t>7126504b-b47a-4393-a080-327294798b15</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3937,17 +3902,17 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Revise a política de expiração de senha da sua organização para contas usadas pela integração do Azure Files AD</t>
+          <t>Definir configurações do FSLogix usando o modelo ADMX de GPO fornecido internamente</t>
         </is>
       </c>
       <c r="D65" s="21" t="inlineStr">
         <is>
-          <t>Como parte do procedimento para integrar o Compartilhamento de Arquivos do Azure e a autenticação do Active Directory, uma conta do AD para representar a conta de armazenamento (compartilhamento de arquivos) será criada. Você pode optar por se registrar como uma conta de computador ou conta de logon de serviço, consulte as Perguntas frequentes para obter detalhes. Para contas de computador, há uma idade de expiração de senha padrão definida no AD em 30 dias. Da mesma forma, a conta de logon de serviço pode ter uma idade de expiração de senha padrão definida no domínio do AD ou na Unidade Organizacional (OU). Para ambos os tipos de conta, recomendamos que você verifique a idade de expiração da senha configurada em seu ambiente do AD e planeje atualizar a senha da identidade da conta de armazenamento da conta do AD antes da idade máxima da senha. Você pode considerar a criação de uma nova Unidade Organizacional (UO) do AD no AD e desabilitar a diretiva de expiração de senha em contas de computador ou contas de logon de serviço adequadamente.</t>
+          <t>Se GPOs de Domínio do Active Directory forem usados, é recomendável configurar o FSLogix usando o modelo ADMX de GPO fornecido internamente mencionado no artigo complementar na coluna 'Mais informações'</t>
         </is>
       </c>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3958,7 +3923,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
+          <t>https://learn.microsoft.com/fslogix/how-to-use-group-policy-templates</t>
         </is>
       </c>
       <c r="I65" s="15" t="n"/>
@@ -3966,7 +3931,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
+          <t>2226a8e3-50a4-4ac3-8bd6-ee150553051f</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3982,22 +3947,22 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>Diretório Ativo</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Um locatário do Active Directory do Azure deve estar disponível com pelo menos uma assinatura vinculada</t>
+          <t>Criar uma conta de usuário dedicada com apenas permissões para ingressar a VM no domínio</t>
         </is>
       </c>
       <c r="D66" s="21" t="inlineStr">
         <is>
-          <t>Uma assinatura do Azure deve ser vinculada ao mesmo locatário do Azure AD, que contém uma rede virtual que contém ou está conectada à instância do Active Directory do Windows Server ou do Azure AD DS.</t>
+          <t>Recomenda-se ter uma conta dedicada específica com permissões mínimas e sem a limitação padrão de 10 junções. Consulte o artigo complementar para obter mais detalhes.</t>
         </is>
       </c>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4008,14 +3973,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/prerequisites?tabs=portal#session-hosts</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
+          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -4031,22 +3996,22 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>Diretório Ativo</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Uma floresta/domínio do Active Directory do Windows Server está sincronizado com o Azure Active Directory</t>
+          <t>Crie um grupo de usuários de domínio para cada conjunto de usuários que terá acesso a cada Grupo de Aplicativos do Pool de Hosts (DAG ou RAG)</t>
         </is>
       </c>
       <c r="D67" s="21" t="inlineStr">
         <is>
-          <t>Você pode configurar isso usando o Azure AD Connect (para organizações híbridas) ou os Serviços de Domínio do Azure AD (para organizações híbridas ou na nuvem).</t>
+          <t xml:space="preserve">Evite conceder acesso por usuário, use grupos do AD e replique-os usando o Active Directory Connector (ADC) na ID do Microsoft Entra (antigo Azure AD). </t>
         </is>
       </c>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4057,7 +4022,7 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I67" s="15" t="n"/>
@@ -4065,7 +4030,7 @@
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
+          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -4081,22 +4046,22 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>Diretório Ativo</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Verifique os requisitos da Conta de Usuário para se conectar à Área de Trabalho Virtual do Windows</t>
+          <t>Revise a política de expiração de senha da sua organização para contas usadas pela integração do Azure Files AD</t>
         </is>
       </c>
       <c r="D68" s="21" t="inlineStr">
         <is>
-          <t>(1) O usuário deve ser originado do mesmo Active Directory que está conectado ao Azure AD. A Área de Trabalho Virtual do Windows não oferece suporte a contas B2B ou MSA. (2) O UPN que você usa para assinar a Área de Trabalho Virtual do Windows deve existir no domínio do Active Directory ao qual a VM está associada.</t>
+          <t>Se a integração do Azure Files Active Directory (AD) for usada, como parte do procedimento de configuração, uma conta do AD para representar a conta de armazenamento (compartilhamento de arquivos) será criada. Você pode optar por se registrar como uma conta de computador ou conta de logon de serviço, consulte as Perguntas frequentes para obter detalhes. Para contas de computador, há uma idade de expiração de senha padrão definida no AD em 30 dias. Da mesma forma, a conta de logon de serviço pode ter uma idade de expiração de senha padrão definida no domínio do AD ou na Unidade Organizacional (OU). Para ambos os tipos de conta, recomendamos que você verifique a idade de expiração da senha configurada em seu ambiente do AD e planeje atualizar a senha da identidade da conta de armazenamento da conta do AD antes da idade máxima da senha. Você pode considerar a criação de uma nova Unidade Organizacional (UO) do AD no AD e desabilitar a diretiva de expiração de senha em contas de computador ou contas de logon de serviço adequadamente.</t>
         </is>
       </c>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4107,7 +4072,7 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
         </is>
       </c>
       <c r="I68" s="15" t="n"/>
@@ -4115,7 +4080,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
+          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4131,22 +4096,22 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>Diretório Ativo</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Verifique os requisitos de VM para hosts de sessão AVD que serão criados</t>
+          <t>Uma floresta/domínio do Active Directory do Windows Server deve estar sincronizado com o Microsoft Entra ID</t>
         </is>
       </c>
       <c r="D69" s="21" t="inlineStr">
         <is>
-          <t>As VMs devem ser ingressadas no domínio padrão ou híbridas no AD. As máquinas virtuais não podem ser ingressadas no Azure AD.</t>
+          <t>Você pode configurar isso usando o Active Directory Connect (ADC) ou os Serviços de Domínio do Azure AD (para organizações híbridas ou na nuvem). A ID do Microsoft Entra é o novo nome do Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4157,7 +4122,7 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/prerequisites?tabs=portal#identity</t>
         </is>
       </c>
       <c r="I69" s="15" t="n"/>
@@ -4165,7 +4130,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
+          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4181,22 +4146,22 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>Microsoft Entra ID</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antes de usar os Serviços de Domínio Active Directory do Azure (AAD-DS) para AVD, verifique as limitações. </t>
+          <t>Configurar o compartilhamento de Arquivos do Azure para a autenticação Kerberos da ID do Microsoft Entra (antigo Azure AD) no Microsoft Entra ID Cenário de ingresso</t>
         </is>
       </c>
       <c r="D70" s="21" t="inlineStr">
         <is>
-          <t>Comparar os Serviços de Domínio Active Directory autogerenciados, o Azure Active Directory e os Serviços de Domínio do Active Directory do Azure gerenciados</t>
+          <t>Se os Arquivos do Azure forem usados e os pré-requisitos puderem ser satisfeitos, é recomendável configurar a autenticação Kerberos (ID do Microsoft Entra). Essa configuração permitirá armazenar perfis FSLogix que podem ser acessados por identidades de usuário híbridas de hosts de sessão ingressados no Azure AD sem exigir linha de visão de rede para controladores de domínio.</t>
         </is>
       </c>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4207,7 +4172,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
+          <t>https://learn.microsoft.com/azure/storage/files/storage-files-identity-auth-hybrid-identities-enable</t>
         </is>
       </c>
       <c r="I70" s="15" t="n"/>
@@ -4215,7 +4180,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
+          <t>e777fd5e-c5f1-4d6e-8fa9-fc210b88e338</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4226,27 +4191,27 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>Monitoramento e Gerenciamento</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Avaliar o requisito de dimensionamento automático do pool de hosts</t>
+          <t>Um locatário do Microsoft Entra ID deve estar disponível com pelo menos uma assinatura vinculada</t>
         </is>
       </c>
       <c r="D71" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">A ferramenta de dimensionamento fornece uma opção de automação de baixo custo para clientes que desejam otimizar seus custos de VM de host de sessão. Você pode usar a ferramenta de dimensionamento para agendar VMs para iniciar e parar com base no horário comercial de pico e fora de pico, dimensionar VMs com base no número de sessões por núcleo de CPU, dimensionar em VMs durante o horário fora de pico, deixando o número mínimo de VMs de host de sessão em execução. Ainda não disponível para o tipo de Pool de Host Pessoal, recomendado para ter uma configuração separada para cada pool de hosts. </t>
+          <t>Uma assinatura do Azure deve ser vinculada ao mesmo locatário do Microsoft Entra ID (antigo Azure AD), que contém uma rede virtual que contém ou está conectada à instância dos Serviços de Domínio Active Directory do Windows Server ou dos Serviços de Domínio Microsoft Entra ID.</t>
         </is>
       </c>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4257,7 +4222,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/prerequisites?tabs=portal#identity</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -4265,7 +4230,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
+          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4276,27 +4241,27 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>Monitoramento e Gerenciamento</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Verifique periodicamente as recomendações do Azure Advisor para AVD</t>
+          <t>Revisar e documentar seu cenário de identidade</t>
         </is>
       </c>
       <c r="D72" s="21" t="inlineStr">
         <is>
-          <t>O Azure Advisor analisa suas configurações e telemetria para oferecer recomendações personalizadas para resolver problemas comuns. Com essas recomendações, você pode otimizar seus recursos do Azure para confiabilidade, segurança, excelência operacional, desempenho e custo.</t>
+          <t>A Área de Trabalho Virtual do Azure dá suporte a diferentes tipos de identidades, dependendo da configuração escolhida. Analise os cenários suportados mencionados no artigo 'Mais informações' e documente a decisão de design de acordo na coluna 'Comentário'. Criticamente, identidades externas (B2B ou B2C) não são suportadas. Certifique-se de revisar também a lista de cenários com suporte no https://learn.microsoft.com/en-us/azure/virtual-desktop/prerequisites?tabs=portal#supported-identity-scenarios.</t>
         </is>
       </c>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4307,7 +4272,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/authentication</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4315,7 +4280,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
+          <t>b4ce4781-7557-4a1f-8043-332ae199d44c</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4326,22 +4291,22 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>Monitoramento e Gerenciamento</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Planejar uma estratégia de gerenciamento de atualização de imagem dourada</t>
+          <t>Avaliar tipos e requisitos de Conta de Usuário</t>
         </is>
       </c>
       <c r="D73" s="21" t="inlineStr">
         <is>
-          <t>Prepare uma estratégia para gerenciar atualizações para imagens douradas, por exemplo, para aplicar hotfixes de segurança e/ou atualizar aplicativos instalados dentro da imagem. O Serviço Azure Image Builder é uma solução de 1ª parte para automatizar a compilação e a personalização de VMs.Os modelos ARM podem ser usados para criar novos hosts e, em seguida, desativar os antigos: https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool abordagem recomendada é criar um novo pool lado a lado, mais fácil de reverter, não utilizável para pool dedicadoReimplantar e aumentar o número de VMs com o modelo ARM também é uma opção viável. Os clientes também podem querer usar métodos de distribuição de software existentes para atualizar a imagem sem reimplantar, para exampel com SCCM ou similar.</t>
+          <t>Os usuários precisam de contas que estejam na ID do Microsoft Entra (antigo Azure AD). Se você também estiver usando o AD DS ou os Serviços de Domínio do Azure AD em sua implantação da Área de Trabalho Virtual do Azure, essas contas precisarão ser identidades híbridas, o que significa que as contas de usuário são sincronizadas. Se você estiver usando a ID do Microsoft Entra com o AD DS, precisará configurar o Azure AD Connect para sincronizar os dados de identidade do usuário entre o AD DS e a ID do Microsoft Entra. Se você estiver usando a ID do Microsoft Entra com os Serviços de Domínio do Azure AD, as contas de usuário serão sincronizadas de uma maneira da ID do Microsoft Entra para os Serviços de Domínio do Azure AD. Esse processo de sincronização é automático. O AVD também oferece suporte a contas nativas do Microsoft Entra ID com algumas restrições. Não há suporte para identidades externas (B2B ou B2C).</t>
         </is>
       </c>
       <c r="E73" s="21" t="inlineStr">
@@ -4357,7 +4322,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/prerequisites?tabs=portal#supported-identity-scenarios</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4365,7 +4330,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
+          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4376,22 +4341,22 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>Monitoramento e Gerenciamento</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Planejar uma estratégia de atualização e aplicação de patches do Host de Sessão</t>
+          <t>Se o SSO (logon único) for um requisito, examine os cenários e pré-requisitos com suporte</t>
         </is>
       </c>
       <c r="D74" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Os clientes podem ter várias opções:- Microsoft Endpoint Configuration Manager, este artigo explica como configurar o Microsoft Endpoint Configuration Manager para aplicar automaticamente atualizações a um host de Área de Trabalho Virtual do Windows executando o Windows 10 Enterprise várias sessões: https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)-  3ª Parte que oferece suporte a você SO.- Azure Update Management (Automação do Azure), hoje sem suporte para o sistema operacional cliente: https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt é recomendável sair de uma estratégia de aplicação de patches e passar para uma estratégia de recriação de imagens, se possível. </t>
+          <t>O AVD dá suporte ao SSO usando a autenticação dos Serviços de Federação do Active Directory (AD FS) ou da ID do Microsoft Entra (antigo AD do Azure). Este último é recomendado, verifique os requisitos e limitações no artigo 'Mais informações'. Usar o AD FS pode ser uma opção viável se já estiver presente no ambiente do cliente, não é recomendável implantar uma nova infraestrutura do ADFS apenas para a implementação do AVD SSO.</t>
         </is>
       </c>
       <c r="E74" s="21" t="inlineStr">
@@ -4407,7 +4372,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/authentication#single-sign-on-sso</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4415,7 +4380,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
+          <t>5f9f680a-ba07-4429-bbf7-93d7071561f4</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4426,27 +4391,27 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>Monitoramento e Gerenciamento</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Avaliar o requisito de um ambiente canário de teste AVD</t>
+          <t>Selecione o tipo de ingresso de domínio do Host da Sessão AVD adequado</t>
         </is>
       </c>
       <c r="D75" s="21" t="inlineStr">
         <is>
-          <t>Os pools de hosts são uma coleção de uma ou mais máquinas virtuais idênticas no ambiente de Área de Trabalho Virtual do Windows. É altamente recomendável que você crie um pool de hosts de validação onde as atualizações de serviço sejam aplicadas primeiro. Isso permite que você monitore as atualizações de serviço antes que o serviço as aplique ao seu ambiente padrão ou não.</t>
+          <t>As VMs podem ser ingressadas no domínio do Windows Active Directory (AD), ingressadas no AD híbrido, ingressadas na ID do Microsoft Entra (antigo Azure AD) ou ingressadas nos Serviços de Domínio do Azure AD. Certifique-se de revisar os cenários, limitações e requisitos suportados do artigo referenciado.</t>
         </is>
       </c>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4457,7 +4422,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/prerequisites?tabs=portal#supported-identity-scenarios</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4465,7 +4430,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
+          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4476,27 +4441,27 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>Monitoramento e Gerenciamento</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Gestão</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Determinar a estratégia de implantação do Pool de Hosts</t>
+          <t>Antes de usar os Serviços de Domínio do Azure AD (AAD-DS) para AVD, verifique as limitações.</t>
         </is>
       </c>
       <c r="D76" s="21" t="inlineStr">
         <is>
-          <t>Um Pool de Hosts AVD pode ser implantado de várias maneiras: Portal do Azure, modelos ARM, ferramenta CLI do Azure, Powershell, criação manual de VM com token de registro, Terraform, etc. É importante adotar método(s) adequado(s) para suportar a implantação automática por meio de ferramentas de automação e CI/CD.</t>
+          <t>Comparar os Serviços de Domínio Active Directory do Windows autogerenciados, a ID do Microsoft Entra (antigo Azure AD) e os Serviços de Domínio do Azure AD (AAD-DS) gerenciados</t>
         </is>
       </c>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4507,7 +4472,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
+          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4515,7 +4480,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
+          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4536,17 +4501,17 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Ative VMs regularmente a cada 90 dias para atualização de token</t>
+          <t>Usar modelos administrativos fornecidos internos para configuração de configurações do AVD</t>
         </is>
       </c>
       <c r="D77" s="21" t="inlineStr">
         <is>
-          <t>Depois de registrar uma VM em um pool de hosts no serviço Área de Trabalho Virtual do Windows, o agente atualiza regularmente o token da VM sempre que a VM está ativa. O certificado para o token de registro é válido por 90 dias. Devido a esse limite de 90 dias, recomendamos que as VMs fiquem online por 20 minutos a cada 90 dias para que a máquina possa atualizar seus tokens e atualizar o agente e os componentes de pilha lado a lado.</t>
+          <t>O AVD fornece modelos administrativos para o Intune e o GPO do Active Directory. Usando esses modelos, é possível controlar centralmente várias definições de configuração do AVD: registro de dados relacionados a gráficos, proteção de captura de tela, Shortpath RDP para redes gerenciadas, Marca d'água. Consulte o artigo complementar no colum 'Mais informações' para obter detalhes. NOTA: FSLogix tem seu próprio modelo separado.</t>
         </is>
       </c>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4557,7 +4522,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/administrative-template</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4565,7 +4530,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
+          <t>5549524b-36c0-4f1a-892b-ab3ca78f5db2</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4581,22 +4546,22 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Habilitar o Monitoramento do Azure para AVD</t>
+          <t>Planejar a estratégia de gerenciamento de configuração de hosts de sessão AVD</t>
         </is>
       </c>
       <c r="D78" s="21" t="inlineStr">
         <is>
-          <t>O Azure Monitor para Área de Trabalho Virtual do Windows é um painel criado em Pastas de Trabalho do Azure Monitor que ajuda os profissionais de TI a entender seus ambientes de Área de Trabalho Virtual do Windows. Leia o artigo referenciado para saber como configurar o Azure Monitor para Área de Trabalho Virtual do Windows para monitorar seus ambientes de Área de Trabalho Virtual do Windows.</t>
+          <t>Determine se uma ferramenta de gerenciamento de configuração já está em vigor para gerenciar a configuração da VM do Pool de Hosts após a implantação inicial, por exemplo, SCCM/SCOM, Intune/ConfigurationManager, soluções de terceiros 3rd.</t>
         </is>
       </c>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4607,7 +4572,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/management</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4615,7 +4580,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
+          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4631,17 +4596,17 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Habilitar e redirecionar configurações de diagnóstico para Espaços de Trabalho, Pools de Hosts, Grupos de Aplicativos e VMs de Host para o espaço de trabalho do Log Analytics</t>
+          <t>Avaliar o Intune para gerenciamento de hosts de sessão AVD</t>
         </is>
       </c>
       <c r="D79" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">A Área de Trabalho Virtual do Windows usa o Azure Monitor e o Log Analytics para monitoramento e alertas, como muitos outros serviços do Azure. Isso permite que os administradores identifiquem problemas por meio de uma única interface. O serviço cria logs de atividades para ações de usuário e administrativas.  Cada registro de atividades se enquadra nas seguintes categorias: Gerenciamento, Feed, Conexões, Registro de Host, Erros, Pontos de Verificação. </t>
+          <t>Recomendamos usar o Microsoft Intune, se os requisitos puderem ser satisfeitos, para gerenciar seu ambiente de Área de Trabalho Virtual do Azure. Analise os cenários e requisitos com suporte para habilitar o gerenciamento do Intune para Host de Sessão AVD no artigo referenciado na coluna "Mais Informações". Documente sua escolha na coluna 'Comentário'. Nesse artigo, analise os diferentes requisitos e recursos para https://learn.microsoft.com/en-us/mem/intune/fundamentals/windows-virtual-desktop-multi-session https://learn.microsoft.com/en-us/mem/intune/fundamentals/windows-virtual-desktop de sessão única e AVD de várias sessões.</t>
         </is>
       </c>
       <c r="E79" s="21" t="inlineStr">
@@ -4657,7 +4622,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
+          <t>https://learn.microsoft.com/mem/intune/fundamentals/azure-virtual-desktop</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4665,7 +4630,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
+          <t>63a08be1-6004-4b4a-a79b-f3239faae113</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4681,17 +4646,17 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Criar alertas no armazenamento de perfil para ser alertado em caso de alto uso e limitação</t>
+          <t>Avaliar os requisitos para o recurso de dimensionamento automático do pool de hosts</t>
         </is>
       </c>
       <c r="D80" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consulte o artigo referenciado e este adicional para configurar o monitoramento e o alerta adequados para armazenamento: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
+          <t>A ferramenta de dimensionamento fornece uma opção de automação de baixo custo para clientes que desejam otimizar seus custos de VM de host de sessão. Você pode usar a ferramenta de dimensionamento para agendar VMs para iniciar e parar com base no horário comercial de pico e fora de pico, dimensionar VMs com base no número de sessões por núcleo de CPU, dimensionar em VMs durante o horário fora de pico, deixando o número mínimo de VMs de host de sessão em execução. Ainda não disponível para o tipo de Pool de Host Pessoal.</t>
         </is>
       </c>
       <c r="E80" s="21" t="inlineStr">
@@ -4707,7 +4672,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/autoscale-scenarios</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4715,7 +4680,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
+          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4731,22 +4696,22 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configurar a Integridade do Serviço do Azure para alertas AVD </t>
+          <t>Considere o uso de Iniciar VM no Connect para pools de hosts pessoais</t>
         </is>
       </c>
       <c r="D81" s="21" t="inlineStr">
         <is>
-          <t>Você pode usar a Integridade do Serviço do Azure para monitorar problemas de serviço e avisos de integridade para a Área de Trabalho Virtual do Windows. O Azure Service Health pode notificá-lo com diferentes tipos de alertas (por exemplo, email ou SMS), ajudá-lo a entender o efeito de um problema e mantê-lo atualizado à medida que o problema é resolvido.</t>
+          <t>Iniciar VM On Connect permite reduzir custos, permitindo que os usuários finais ativem suas máquinas virtuais (VMs) de host de sessão somente quando precisarem delas. Em seguida, você pode desativar as VMs quando elas não forem necessárias. Você pode configurar Iniciar VM no Connect para pools de hosts pessoais ou em pool usando o portal do Azure ou o PowerShell. Iniciar VM no Connect é uma configuração ampla do pool de hosts.</t>
         </is>
       </c>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4757,7 +4722,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/start-virtual-machine-connect</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4765,7 +4730,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
+          <t>55f612fe-f215-4f0d-a956-10e7dd96bcbc</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4776,27 +4741,27 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Revise a arquitetura de conectividade híbrida para o ambiente local</t>
+          <t>Avaliar a implementação de um mecanismo ad-hoc para desligar hosts de sessão AVD pessoais</t>
         </is>
       </c>
       <c r="D82" s="21" t="inlineStr">
         <is>
-          <t>Que tipo de conectividade híbrida? Rota Expressa, VPN, NVA?</t>
+          <t>'Iniciar VM na Conexão' fornece uma maneira inteligente de iniciar automaticamente Hosts de Sessão interrompidos anteriormente, mas não fornece um mecanismo para desligar quando não estiver em uso. Os administradores são incentivados a configurar políticas adicionais para desconectar usuários de suas sessões e executar scripts de automação do Azure para desalocar VMs. Os usuários não devem ter permissão para desligar seus hosts pessoais, pois não poderão desalocar VMs do Azure, a cobrança ainda estará ativa sem redução de custos.</t>
         </is>
       </c>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4807,7 +4772,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/start-virtual-machine-connect-faq#are-vms-automatically-deallocated-when-a-user-stops-using-them</t>
         </is>
       </c>
       <c r="I82" s="15" t="n"/>
@@ -4815,7 +4780,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
+          <t>79a686ea-d971-4ea0-a9a8-1aea074c94cb</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4826,27 +4791,27 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Avaliar quais recursos os usuários precisarão acessar de pools de hosts AVD para locais</t>
+          <t>Revisar e adotar Tags do Azure sugeridas para a Área de Trabalho Virtual do Azure</t>
         </is>
       </c>
       <c r="D83" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avalie os requisitos de largura de banda, garanta que a largura de banda VPN/ER será suficiente e a latência tolerável. </t>
+          <t xml:space="preserve">A cobrança da Área de Trabalho Virtual do Azure é baseada principalmente no custo associado aos recursos de computação, rede e armazenamento consumidos pelos Pools de Hosts. Além disso, os custos podem ser gerados por recursos dependentes, por exemplo, VPN ou ExpressRoute ou vWAN, Controladores de Domínio do Active Directory, DNS, etc. Não há custo direto associado a objetos AVD, como espaços de trabalho, pools de hosts ou grupos de aplicativos. Para tornar os custos associados ao AVD mais evidentes e agrupados por Pool de Hosts, é recomendável usar a tag 'cm-resource-parent'. </t>
         </is>
       </c>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4857,7 +4822,7 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/tag-virtual-desktop-resources</t>
         </is>
       </c>
       <c r="I83" s="15" t="n"/>
@@ -4865,7 +4830,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
+          <t>51bcafca-476a-48fa-9b91-9645a7679f20</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4876,27 +4841,27 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Revise a topologia de rede da zona de aterrissagem para o serviço AVD</t>
+          <t>Verifique periodicamente as recomendações do Azure Advisor para AVD</t>
         </is>
       </c>
       <c r="D84" s="21" t="inlineStr">
         <is>
-          <t>Revise ou recomende um novo onde colocar os pools de hosts AVD com base no CAF (vWAN vs. Hub &amp; Spoke)</t>
+          <t>O Azure Advisor analisa suas configurações e telemetria para oferecer recomendações personalizadas para resolver problemas comuns. Com essas recomendações, você pode otimizar seus recursos do Azure para confiabilidade, segurança, excelência operacional, desempenho e custo.</t>
         </is>
       </c>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4907,7 +4872,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/azure-advisor-recommendations</t>
         </is>
       </c>
       <c r="I84" s="15" t="n"/>
@@ -4915,7 +4880,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
+          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4926,22 +4891,22 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Avaliar o posicionamento de VNET e sub-rede para vários pools de hosts</t>
+          <t>Planejar uma estratégia de atualização e patch de emergência do Host de Sessão</t>
         </is>
       </c>
       <c r="D85" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verifique se cada sub-rede terá espaço suficiente para dimensionar o pool de hosts AVD. Para pools de hosts diferentes, recomenda-se usar sub-redes separadas, se possível. </t>
+          <t>Os clientes têm várias opções: Microsoft Configuration Manager, este artigo explica como aplicar automaticamente atualizações a hosts de sessão da Área de Trabalho Virtual do Azure que executam o Windows 10/11: https://learn.microsoft.com/en-us/azure/virtual-desktop/configure-automatic-updates, Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session, Azure Update Management e WSUS para o sistema operacional Windows Server somente (sistema operacional cliente não suportado:  https://learn.microsoft.com/en-us/azure/automation/update-management/operating-system-requirements), 3ª Festa. Fora de uma situação de correção de segurança de emergência, recomenda-se sair de uma estratégia de correção de estratégia de atualização "in-loco" e adotar uma abordagem de recriação de imagens.</t>
         </is>
       </c>
       <c r="E85" s="21" t="inlineStr">
@@ -4957,7 +4922,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/mem/intune/fundamentals/azure-virtual-desktop-multi-session</t>
         </is>
       </c>
       <c r="I85" s="15" t="n"/>
@@ -4965,7 +4930,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
+          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4976,27 +4941,27 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Precisa controlar/restringir o tráfego de saída da Internet para hosts AVD? </t>
+          <t>Configurar o recurso Atualizações Agendadas do Agente</t>
         </is>
       </c>
       <c r="D86" s="21" t="inlineStr">
         <is>
-          <t>Várias opções estão disponíveis. Você pode usar o Firewall do Azure ou o Firewall NVA, o NSG e/ou o Proxy. O NSG não é capaz de ativar/desativar por URL, apenas portas e protocolos. O proxy deve ser usado apenas como configuração explícita no navegador do usuário. Os detalhes sobre como usar o Firewall do Azure Premium com AVD estão aqui no https://aka.ms/AVDfirewall e aqui https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop. Certifique-se de revisar a lista completa de requisitos para acesso a URLs AVD.</t>
+          <t>O recurso Atualizações Agendadas do Agente permite criar até duas janelas de manutenção por Pool de Hosts para atualizar os componentes do AVD em um momento conveniente. Recomenda-se especificar janelas de manutenção e, em seguida, a atualização dos hosts de sessão não ocorrerá durante o horário comercial de pico. As Atualizações Agendadas do Agente estão desabilitadas por padrão. Isso significa que, a menos que você habilite essa configuração, o agente pode ser atualizado a qualquer momento pelo serviço de voo de atualização do agente.</t>
         </is>
       </c>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5007,7 +4972,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://aka.ms/AVDfirewall</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/scheduled-agent-updates</t>
         </is>
       </c>
       <c r="I86" s="15" t="n"/>
@@ -5015,7 +4980,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
+          <t>c067939b-e5ca-4698-b9ce-3bd91843e73f</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -5026,22 +4991,22 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Precisa controlar/restringir o tráfego de saída da Internet apenas para usuários em hosts AVD? </t>
+          <t>Criar um pool de hosts de validação (canário)</t>
         </is>
       </c>
       <c r="D87" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere o uso do Azure Defender Endpoint para controlar a navegação na Web do usuário, consulte a seção Segurança para obter mais detalhes. </t>
+          <t>Os pools de host são uma coleção de uma ou mais máquinas virtuais idênticas no ambiente de Área de Trabalho Virtual do Azure. É altamente recomendável que você crie um pool de hosts de validação onde as atualizações de serviço sejam aplicadas primeiro. Isso permite que você monitore as atualizações de serviço antes que o serviço as aplique ao seu ambiente padrão ou não.</t>
         </is>
       </c>
       <c r="E87" s="21" t="inlineStr">
@@ -5057,7 +5022,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
         </is>
       </c>
       <c r="I87" s="15" t="n"/>
@@ -5065,7 +5030,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
+          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -5076,27 +5041,27 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Revisar UDR para sub-rede do Pool de Hosts AVD</t>
+          <t>Determinar a estratégia de implantação do Pool de Hosts</t>
         </is>
       </c>
       <c r="D88" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">O UDR personalizado pode ser aplicado à sub-rede do Pool de Hosts AVD, por exemplo, para redirecionar para o Firewall do Azure ou NVA. Neste caso, recomenda-se revisar cuidadosamente para garantir que o caminho ideal para o tráfego de saída para o plano de controle AVD seja usado. As etiquetas de serviço agora podem ser usadas com UDR, então o tráfego do plano de gerenciamento AVD pode ser facilmente colocado na lista de permissões. https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop </t>
+          <t>Um Pool de Hosts AVD pode ser implantado de várias maneiras: Portal do Azure, modelos ARM, ferramenta CLI do Azure, Powershell, criação manual de VM com token de registro, Terraform, ferramentas de terceiros 3rd. É importante adotar método(s) adequado(s) para suportar a implantação automática por meio de ferramentas de automação e CI/CD.</t>
         </is>
       </c>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5107,7 +5072,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/wvd/eslz-platform-automation-and-devops</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -5115,7 +5080,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
+          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -5126,27 +5091,27 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Garantir que os pontos de extremidade do plano de controle AVD estejam acessíveis</t>
+          <t>Ativar VMs de Host de Sessão pelo menos a cada 90 dias para atualização de token</t>
         </is>
       </c>
       <c r="D89" s="21" t="inlineStr">
         <is>
-          <t>As URLs necessárias para acesso ao plano de controle AVD por hosts de sessão estão documentadas aqui: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list. Uma ferramenta de verificação está disponível para verificar a conectividade dos hosts de sessão: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool.</t>
+          <t>Depois de registrar uma VM em um pool de hosts no serviço Área de Trabalho Virtual do Azure, o agente atualiza regularmente o token da VM sempre que a VM estiver ativa. O certificado para o token de registro é válido por 90 dias. Devido a esse limite de 90 dias, recomendamos que as VMs fiquem online por 20 minutos a cada 90 dias para que a máquina possa atualizar seus tokens e atualizar o agente e os componentes de pilha lado a lado.</t>
         </is>
       </c>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5157,7 +5122,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I89" s="15" t="n"/>
@@ -5165,7 +5130,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
+          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5176,27 +5141,27 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Verifique a largura de banda de rede necessária para cada usuário e, no total, para o SKU da VM</t>
+          <t>Habilitar o monitoramento para AVD</t>
         </is>
       </c>
       <c r="D90" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">É recomendável avaliar e revisar os requisitos de largura de banda de rede para os usuários, com base no tipo de carga de trabalho específico. O artigo referenciado fornece estimativas e recomendações gerais, mas medidas específicas são necessárias para o dimensionamento adequado. </t>
+          <t>O Azure Virtual Desktop Insights é um painel criado em Pastas de Trabalho do Azure Monitor que ajuda os profissionais de TI a entender seus ambientes de Área de Trabalho Virtual do Azure. Leia o artigo referenciado para saber como configurar o Azure Monitor para Área de Trabalho Virtual do Azure para monitorar seus ambientes AVD.</t>
         </is>
       </c>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5207,7 +5172,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/insights</t>
         </is>
       </c>
       <c r="I90" s="15" t="n"/>
@@ -5215,7 +5180,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
+          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5226,22 +5191,22 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Configuração do Host</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de que os usuários do AVD não terão privilégios de administrador local nos hosts AVD. </t>
+          <t>Habilitar configurações de diagnóstico para Espaços de Trabalho, Pools de Hosts, Grupos de Aplicativos e VMs de Host para o espaço de trabalho do Log Analytics</t>
         </is>
       </c>
       <c r="D91" s="21" t="inlineStr">
         <is>
-          <t>Recomendamos que você não conceda aos usuários acesso de administrador a áreas de trabalho virtuais. Se você precisar de pacotes de software, recomendamos disponibilizá-los por meio de utilitários de gerenciamento de configuração, como o Microsoft Endpoint Manager. Em um ambiente de várias sessões, recomendamos que você não permita que os usuários instalem o software diretamente.</t>
+          <t xml:space="preserve">A Área de Trabalho Virtual do Azure usa o Azure Monitor e o Log Analytics para monitoramento e alertas, como muitos outros serviços do Azure. Isso permite que os administradores identifiquem problemas por meio de uma única interface. O serviço cria logs de atividades para ações de usuário e administrativas.  Cada registro de atividades se enquadra nas seguintes categorias: Gerenciamento, Feed, Conexões, Registro de Host, Erros, Pontos de Verificação. </t>
         </is>
       </c>
       <c r="E91" s="21" t="inlineStr">
@@ -5257,7 +5222,7 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
         </is>
       </c>
       <c r="I91" s="15" t="n"/>
@@ -5265,7 +5230,7 @@
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
+          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5276,27 +5241,27 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Configuração do Host</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Garantir que a solução antivírus e antimalware seja usada</t>
+          <t>Criar alertas no armazenamento de perfil para ser alertado em caso de alto uso e limitação</t>
         </is>
       </c>
       <c r="D92" s="21" t="inlineStr">
         <is>
-          <t>O Microsoft Defender for Endpoint agora oferece suporte à Área de Trabalho Virtual do Windows para Windows 10 Enterprise em várias sessões. Consulte o artigo para integrar dispositivos VDI (infraestrutura de área de trabalho virtual) não persistentes: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
+          <t xml:space="preserve">Consulte o artigo referenciado e este adicional para configurar o monitoramento e o alerta adequados para armazenamento: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
         </is>
       </c>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5307,7 +5272,7 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I92" s="15" t="n"/>
@@ -5315,7 +5280,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
+          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5326,27 +5291,27 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>Configuração do Host</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que as exclusões AV adequadas estão em vigor</t>
+          <t xml:space="preserve">Configurar a Integridade do Serviço do Azure para alertas AVD </t>
         </is>
       </c>
       <c r="D93" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que as seguintes exclusões estejam em vigor: https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix#antivirus-exclusions .</t>
+          <t>Você pode usar a Integridade do Serviço do Azure para monitorar problemas de serviço e avisos de integridade para a Área de Trabalho Virtual do Azure. O Azure Service Health pode notificá-lo com diferentes tipos de alertas (por exemplo, email ou SMS), ajudá-lo a entender o efeito de um problema e mantê-lo atualizado à medida que o problema é resolvido.</t>
         </is>
       </c>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5357,7 +5322,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -5365,7 +5330,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
+          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5376,27 +5341,27 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Configuração do Host</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Avaliar os requisitos de criptografia de disco para hosts AVD</t>
+          <t>Determinar se a conectividade híbrida é necessária para se conectar ao ambiente local</t>
         </is>
       </c>
       <c r="D94" s="21" t="inlineStr">
         <is>
-          <t>Os discos no Azure já são criptografados em repouso por padrão com chaves gerenciadas pela Microsoft. A criptografia de disco do Host VM OS é possível e suportada usando ADE e DES: os dados sensíveis e peristents do usuário não devem ser armazenados no disco do Host da Sessão, então eles devem ser usados somente se estritamente necessário por motivo de conformidade. A criptografia do armazenamento FSLogix usando Arquivos do Azure pode ser feita usando SSE no Armazenamento do Azure.Para criptografia do OneDrive, consulte este artigo: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
+          <t xml:space="preserve">Se necessário para se conectar ao ambiente local, avalie a opção de conectividade atual ou planeje a conectividade necessária (ExpressRoute, Azure S2S ou VPN NVA de 3ª parte). </t>
         </is>
       </c>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5407,7 +5372,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I94" s="15" t="n"/>
@@ -5415,7 +5380,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
+          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5426,22 +5391,22 @@
     <row r="95" ht="16.5" customHeight="1">
       <c r="A95" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Configuração do Host</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Precisa controlar/restringir a navegação do usuário na Internet a partir de hosts de sessão AVD?</t>
+          <t>Determinar o posicionamento da Rede Virtual do Azure (VNet) para cada Pool de Hosts AVD</t>
         </is>
       </c>
       <c r="D95" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere o uso do Azure Defender Endpoint para controlar a navegação do usuário na Web. </t>
+          <t>Os Pools de Hosts AVD podem ser implantados em topologias de rede WAN Virtual do Azure ou tradicionais 'Hub &amp; Spoke'. Recomenda-se implantar cada Pool de Hosts em uma VNet 'spoke' separada, o uso de 'hub' não é recomendado.</t>
         </is>
       </c>
       <c r="E95" s="21" t="inlineStr">
@@ -5457,7 +5422,7 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/wvd/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I95" s="15" t="n"/>
@@ -5465,7 +5430,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
+          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5476,22 +5441,22 @@
     <row r="96" ht="16.5" customHeight="1">
       <c r="A96" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Avaliar o uso da Central de Segurança do Azure (ASC) para hosts de sessão AVD</t>
+          <t>Avaliar quais recursos locais são necessários dos pools de hosts AVD</t>
         </is>
       </c>
       <c r="D96" s="21" t="inlineStr">
         <is>
-          <t>Recomendamos que você habilite a Central de Segurança do Azure Standard para assinaturas, máquinas virtuais, cofres de chaves e contas de armazenamento. Com a Central de Segurança do Azure Standard é possível avaliar e gerenciar vulnerabilidades, avaliar a conformidade com estruturas comuns como PCI, fortalecer a segurança geral do seu ambiente AVD.</t>
+          <t xml:space="preserve">Avalie os requisitos de largura de banda, garanta que a largura de banda VPN/ER será suficiente, assegure-se de que as regras adequadas de roteamento e firewall estejam em vigor, teste a latência de ponta a ponta. </t>
         </is>
       </c>
       <c r="E96" s="21" t="inlineStr">
@@ -5507,7 +5472,7 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I96" s="15" t="n"/>
@@ -5515,7 +5480,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
+          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5526,22 +5491,22 @@
     <row r="97" ht="16.5" customHeight="1">
       <c r="A97" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Revise GPOs do Active Directory para proteger sessões RDP</t>
+          <t>Precisa controlar/restringir o tráfego de saída da Internet para hosts AVD?</t>
         </is>
       </c>
       <c r="D97" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deve ser usado, por exemplo, para impor bloqueio de área de trabalho e encerramento de sessão ociosa. Os GPOs existentes aplicados ao ambiente local devem ser revisados e, eventualmente, aplicados para proteger também os hosts AVD. </t>
+          <t>Várias opções estão disponíveis. Você pode usar o Firewall do Azure ou NVA de 3ª parte, NSG (Grupo de Segurança de Rede) e/ou servidores Proxy equivalentes. O NSG não é capaz de ativar/desativar por URL, apenas portas e protocolos. O proxy deve ser usado apenas como configuração explícita no navegador do usuário. Os detalhes sobre como usar o Firewall do Azure Premium com AVD são relatados no artigo complementar na coluna 'Mais informações'. Certifique-se de permitir o acesso adequado aos URLs AVD necessários. O tunelamento forçado para o local não é recomendado.</t>
         </is>
       </c>
       <c r="E97" s="21" t="inlineStr">
@@ -5557,7 +5522,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t xml:space="preserve"> https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I97" s="15" t="n"/>
@@ -5565,7 +5530,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
+          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5576,27 +5541,27 @@
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Avaliar o uso de MFA para usuários AVD</t>
+          <t>Garantir que os pontos de extremidade do plano de controle AVD estejam acessíveis</t>
         </is>
       </c>
       <c r="D98" s="21" t="inlineStr">
         <is>
-          <t>Para obter detalhes e insights adicionais, consulte este artigo: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
+          <t>As URLs necessárias para acesso ao plano de controle AVD por hosts de sessão estão documentadas aqui: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list. Uma ferramenta de verificação está disponível para verificar a conectividade dos hosts de sessão: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool. O tunelamento forçado para o local não é recomendado.</t>
         </is>
       </c>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5607,7 +5572,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
         </is>
       </c>
       <c r="I98" s="15" t="n"/>
@@ -5615,7 +5580,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
+          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5626,27 +5591,27 @@
     <row r="99" ht="16.5" customHeight="1">
       <c r="A99" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Avaliar o uso do Acesso Condicional para usuários</t>
+          <t xml:space="preserve">Precisa controlar/restringir o tráfego de saída da Internet apenas para usuários em hosts AVD? </t>
         </is>
       </c>
       <c r="D99" s="21" t="inlineStr">
         <is>
-          <t>A habilitação do Acesso Condicional permite gerenciar riscos antes de conceder aos usuários acesso ao seu ambiente de Área de Trabalho Virtual do Windows. Ao decidir a quais usuários conceder acesso, recomendamos que você também considere quem é o usuário, como ele entra e qual dispositivo está usando.</t>
+          <t>Considere o uso do Azure Defender Endpoint ou agentes 3rd-party semelhantes para controlar a navegação na Web do usuário, consulte a seção Segurança para obter mais detalhes.</t>
         </is>
       </c>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5657,7 +5622,7 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/onboard-windows-multi-session-device?view=o365-worldwide</t>
         </is>
       </c>
       <c r="I99" s="15" t="n"/>
@@ -5665,7 +5630,7 @@
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
+          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5676,27 +5641,27 @@
     <row r="100" ht="16.5" customHeight="1">
       <c r="A100" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Habilitar o log de diagnóstico e auditoria no espaço de trabalho central do Log Analytics</t>
+          <t>Revisar UDR e NSG personalizados para sub-redes do pool de hosts AVD</t>
         </is>
       </c>
       <c r="D100" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habilitar a coleta de logs de auditoria permite exibir atividades de usuário e administrador relacionadas à Área de Trabalho Virtual do Windows. Este também é um requisito para eanble e usar a ferramenta de monitoramento AVD. Altamente recomendado para habilitar. </t>
+          <t>UDR e NSG personalizados podem ser aplicados a sub-redes do Pool de Hosts AVD, por exemplo, para redirecionar para o Firewall do Azure ou NVA, ou para filtrar/bloquear o tráfego de rede. Neste caso, recomenda-se revisar cuidadosamente para garantir que o caminho ideal para o tráfego de saída para o plano de controle AVD seja usado. As etiquetas de serviço agora podem ser usadas com UDR e NSG, então o tráfego do plano de gerenciamento AVD pode ser facilmente permitido: https://learn.microsoft.com/en-us/azure/virtual-desktop/safe-url-list.</t>
         </is>
       </c>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5707,7 +5672,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I100" s="15" t="n"/>
@@ -5715,7 +5680,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
+          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5726,27 +5691,27 @@
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avaliar o requisito de usar funções RBAC personalizadas para gerenciamento de AVD </t>
+          <t>Não use servidores proxy, terminação SSL e inspeção profunda de pacotes para tráfego de plano de controle AVD</t>
         </is>
       </c>
       <c r="D101" s="21" t="inlineStr">
         <is>
-          <t>O AVD usa os controles de acesso baseados em função (RBAC) do Azure para atribuir funções a usuários e administradores. Essas funções dão aos administradores permissão para executar determinadas tarefas. Se a separação de funções for necessária, a Área de Trabalho Virtual do Windows terá funções adicionais que permitem separar funções de gerenciamento para pools de hosts, grupos de aplicativos e espaços de trabalho. Essa separação permite que você tenha um controle mais granular sobre as tarefas administrativas. Essas funções são nomeadas em conformidade com as funções padrão do Azure e a metodologia de privilégios mínimos.</t>
+          <t>O tráfego de rede das VMs do Host da Sessão AVD para o plano de controle AVD deve ser o mais direto possível. Redirecionar esse tráfego por meio de um Proxy ou Firewall com inspeção profunda de pacotes e/ou encerramento SSL pode causar sérios problemas e má experiência do cliente. Recomenda-se ignorar Proxy e Firewall apenas para o plano de controle AVD. O tráfego gerado pelo usuário navegando na web, em vez disso, deve ser filtrado pelo Firewall e/ou redirecionado para um Proxy. Para obter detalhes e diretrizes, consulte o artigo complementar na coluna "Mais informações".</t>
         </is>
       </c>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5757,7 +5722,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/proxy-server-support</t>
         </is>
       </c>
       <c r="I101" s="15" t="n"/>
@@ -5765,7 +5730,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
+          <t>cc6edca0-aeca-4566-9e92-cf246f1465af</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5776,27 +5741,27 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Revise todas as práticas recomendadas de segurança para o ambiente AVD</t>
+          <t>Verifique a largura de banda de rede necessária para cada usuário e, no total, para o SKU da VM</t>
         </is>
       </c>
       <c r="D102" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Um conjunto abrangente de práticas recomendadas de segurança e recomendações estão contidas no artigo referenciado, recomenda-se revisar. </t>
+          <t xml:space="preserve">É recomendável avaliar e revisar os requisitos de largura de banda de rede para os usuários, com base no tipo de carga de trabalho específico. O artigo referenciado fornece estimativas e recomendações gerais, mas medidas específicas são necessárias para o dimensionamento adequado. </t>
         </is>
       </c>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5807,7 +5772,7 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/rdp-bandwidth</t>
         </is>
       </c>
       <c r="I102" s="15" t="n"/>
@@ -5815,7 +5780,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
+          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5826,27 +5791,27 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Determinar qual solução de back-end de armazenamento será usada para o Perfil FSLogix e os Contêineres do Office</t>
+          <t>Avaliar o uso do Ponto de Extremidade Privado para compartilhamento de Arquivos do Azure</t>
         </is>
       </c>
       <c r="D103" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure NetApp Files, Azure Files, Servidor de Arquivos baseado em VM. Servidor de arquivos não recomendado. O Azure Files Premium normalmente é um bom ponto de partida. A NetApp só normalmente é necessária para ambientes de grande escala / alto desempenho. </t>
+          <t>Se o compartilhamento SMB de Arquivos do Azure for usado para armazenar perfis de usuário por meio do FSLogix, o uso do Ponto de Extremidade Privado (PE) para acesso privado ao armazenamento é recomendado. Os hosts de sessão AVD acessarão o armazenamento usando um IP privado na mesma rede virtual, uma sub-rede separada é recomendada. Esse recurso tem um custo adicional que deve ser avaliado. Se o PE não for usado, pelo menos o Service Endpoint é recomendado (sem custo associado).</t>
         </is>
       </c>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5857,7 +5822,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://learn.microsoft.com/azure/storage/files/storage-files-networking-endpoints</t>
         </is>
       </c>
       <c r="I103" s="15" t="n"/>
@@ -5865,7 +5830,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
+          <t>ec27d589-9178-426d-8df2-ff60020f30a6</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5876,27 +5841,27 @@
     <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Avaliar a possibilidade de separar os contêineres de perfil dos contêineres do Office</t>
+          <t>Avaliar o uso do RDP ShortPath para clientes que se conectam a partir de redes internas gerenciadas</t>
         </is>
       </c>
       <c r="D104" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">A recomendação na Área de Trabalho Virtual do Windows é usar o Contêiner de Perfil sem o Contêiner do Office, a menos que você esteja planejando cenários específicos de BCDR (Business Continuity and Disaster Recovery), conforme descrito na seção Recuperação de Desastres abaixo. https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
+          <t>As conexões com a Área de Trabalho Virtual do Azure podem usar TCP ou UDP. O RDP Shortpath é um recurso do AVD que estabelece um transporte direto baseado em UDP entre um cliente de Área de Trabalho Remota do Windows com suporte e o host de sessão. se os clientes tiverem linha de visão para hosts de sessão AVD da rede interna (o uso de VPN não é recomendado), esse recurso pode fornecer menor latência e melhores desempenhos, conforme explicado em https://learn.microsoft.com/en-us/azure/virtual-desktop/rdp-shortpath?tabs=managed-networks#key-benefits.</t>
         </is>
       </c>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5907,7 +5872,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/shortpath</t>
         </is>
       </c>
       <c r="I104" s="15" t="n"/>
@@ -5915,7 +5880,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
+          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5926,27 +5891,27 @@
     <row r="105" ht="16.5" customHeight="1">
       <c r="A105" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Diretório Ativo</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Verificar os limites de escalabilidade de armazenamento para oferecer suporte aos requisitos do Pool de Hosts</t>
+          <t>Revise o GPO do Active Directory para proteger sessões RDP</t>
         </is>
       </c>
       <c r="D105" s="21" t="inlineStr">
         <is>
-          <t>Como ponto de partida para estimar os requisitos de desempenho de armazenamento de contêiner de perfil, recomendamos assumir 10 IOPS por usuário no estado estacionário e 50 IOPS por usuário durante a entrada/saída.</t>
+          <t>Os mecanismos de segurança fornecidos pelo GPO devem ser usados, se disponíveis. Por exemplo, é possível impor o bloqueio da tela da área de trabalho e o tempo ocioso de desconexão da sessão. Os GPOs existentes aplicados ao ambiente local devem ser revisados e, eventualmente, aplicados também para proteger também os hosts AVD quando ingressados no domínio.</t>
         </is>
       </c>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5957,7 +5922,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide#establish-maximum-inactive-time-and-disconnection-policies</t>
         </is>
       </c>
       <c r="I105" s="15" t="n"/>
@@ -5965,7 +5930,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
+          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5976,27 +5941,27 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Configuração do Host</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Se o armazenamento NetApp Files for usado, verifique a disponibilidade do serviço de armazenamento em sua região específica.</t>
+          <t>Garantir que as soluções antivírus e antimalware sejam usadas</t>
         </is>
       </c>
       <c r="D106" s="21" t="inlineStr">
         <is>
-          <t>Se uma segunda região for necessária para fins de DR, verifique a disponibilidade da NetApp lá também.</t>
+          <t>O Microsoft Defender for Endpoint oferece suporte à Área de Trabalho Virtual do Azure para Windows 10/11 Enterprise em várias sessões. Consulte o artigo para integrar dispositivos VDI (infraestrutura de área de trabalho virtual) não persistentes: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
         </is>
       </c>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -6007,7 +5972,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/deployment-vdi-microsoft-defender-antivirus</t>
         </is>
       </c>
       <c r="I106" s="15" t="n"/>
@@ -6015,7 +5980,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
+          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -6026,27 +5991,27 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Configuração do Host</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Para um desempenho ideal, a solução de armazenamento e o contêiner de perfil FSLogix devem estar no mesmo local do data center.</t>
+          <t>Avaliar os requisitos de criptografia de disco para hosts de sessão AVD</t>
         </is>
       </c>
       <c r="D107" s="21" t="inlineStr">
         <is>
-          <t>Evite introduzir latência e custos adicionais associados ao tráfego de rede entre regiões, sempre que possível.</t>
+          <t>Os discos no Azure já são criptografados em repouso por padrão com chaves gerenciadas pela Microsoft. A criptografia de disco do sistema operacional da VM do host é possível e com suporte usando a Criptografia de Disco do Azure (ADE - BitLocker) e o Conjunto de Criptografia de Disco (DES - Criptografia do Lado do Servidor), este último é recomendado. A criptografia do armazenamento FSLogix usando Arquivos do Azure pode ser feita usando o SSE no Armazenamento do Azure. Para criptografia do OneDrive, consulte este artigo: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
         </is>
       </c>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -6057,7 +6022,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
         </is>
       </c>
       <c r="I107" s="15" t="n"/>
@@ -6065,7 +6030,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
+          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -6076,22 +6041,22 @@
     <row r="108" ht="16.5" customHeight="1">
       <c r="A108" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Configuração do Host</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Configure as exclusões de antivírus recomendadas para FSLogix (inclui não examinar arquivos VHD(x) na conexão).</t>
+          <t>Habilitar inicialização confiável em hosts de sessão de VM do Azure Gen2</t>
         </is>
       </c>
       <c r="D108" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de configurar as seguintes exclusões antivírus para discos rígidos virtuais FSLogix Profile Container, conforme documentado no artigo referenciado.</t>
+          <t>O lançamento confiável são VMs do Azure Gen2 com recursos de segurança aprimorados destinados a proteger contra ameaças do "fundo da pilha" por meio de vetores de ataque, como rootkits, kits de inicialização e malware no nível do kernel. Recomendado para habilitar e aproveitar a Inicialização Segura, o TPM Virtual (vTPM) e o Monitoramento de Integridade.</t>
         </is>
       </c>
       <c r="E108" s="21" t="inlineStr">
@@ -6107,7 +6072,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide#azure-virtual-desktop-support-for-trusted-launch</t>
         </is>
       </c>
       <c r="I108" s="15" t="n"/>
@@ -6115,7 +6080,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
+          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -6126,22 +6091,22 @@
     <row r="109" ht="16.5" customHeight="1">
       <c r="A109" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Configuração do Host</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Revise as chaves do Registro FSLogix e determine quais aplicar</t>
+          <t>Habilitar o Início Confiável e usar a imagem Gen2 são requisitos do sistema para o Windows 11</t>
         </is>
       </c>
       <c r="D109" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">As configurações básicas e recomendadas padrão estão aqui: https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises Veja aqui o conjunto principal: https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee aqui para referência completa: https://docs.microsoft.com/fslogix/profile-container-configuration-reference </t>
+          <t>O Lançamento Confiável e a VM Gen2 não são apenas recursos de aprimoramento de segurança e desempenho, mas também requisitos de sistema para o Windows 11. Ao criar um ambiente AVD baseado no Windows 11, é essencial habilitar esses recursos.</t>
         </is>
       </c>
       <c r="E109" s="21" t="inlineStr">
@@ -6157,7 +6122,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/windows/whats-new/windows-11-requirements</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -6165,7 +6130,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
+          <t>135d3899-4b31-44d3-bc8f-028871a359d8</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6176,27 +6141,27 @@
     <row r="110" ht="16.5" customHeight="1">
       <c r="A110" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Configuração do Host</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Verificar o uso de conexões simultâneas ou múltiplas para o mesmo perfil</t>
+          <t>Considere ativar a proteção de captura de tela para impedir que informações confidenciais sejam capturadas</t>
         </is>
       </c>
       <c r="D110" s="21" t="inlineStr">
         <is>
-          <t>Conexões simultâneas ou múltiplas são desencorajadas na Área de Trabalho Virtual do Windows. A prática recomendada é criar um local de perfil diferente para cada sessão (como um pool de hosts).</t>
+          <t>O conteúdo exibido será automaticamente bloqueado ou oculto em capturas de tela. Lembre-se de que o compartilhamento de tela também será bloqueado ao usar o Teams ou outro software de colaboração que use o compartilhamento de tela.</t>
         </is>
       </c>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6207,7 +6172,7 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/screen-capture-protection</t>
         </is>
       </c>
       <c r="I110" s="15" t="n"/>
@@ -6215,7 +6180,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
+          <t>a49dc137-7896-4343-b2bc-1a31bf1d30b6</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6226,27 +6191,27 @@
     <row r="111" ht="16.5" customHeight="1">
       <c r="A111" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Configuração do Host</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Analise as práticas recomendadas e as principais considerações sobre o dimensionamento do armazenamento</t>
+          <t>Restringir o redirecionamento de dispositivos e o mapeamento de unidades</t>
         </is>
       </c>
       <c r="D111" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Como uma estimativa geral, a ser validada em um ambiente de teste, para cada usuário 5 - 15 IOPS devem ser consideradas primeiro, dependendo da carga de trabalho. Arquivos do Azure: Premium max 100k IOPS por compartilhamento (max 100TB) e até 5Gbps com latência de 3ms. Esteja ciente de como os Arquivos do Azure são provisionados, ou seja, IOPS estritamente vinculados ao provisionado SIZE. Capacidade de dimensionamento de intermitência em alguns casos. Certifique-se de provisionar o UPFRONT mais espaço do que o necessário para ter certeza de ter IOPS suficientes. OBSERVAÇÃO: o Azure Premium talvez seja mais barato do que o Standard porque você não paga transações, então detalhes importantes devem ser considerados. Azure NetApp Files: lembre-se de no máximo 1000 IPs conectados, pode ajustar IOPS em tempo real, capacidade provisionada mínima de 4 TB. </t>
+          <t>Se não for absolutamente necessário, o redirecionamento de unidades, impressoras e dispositivos USB para o dispositivo local de um usuário em uma sessão de área de trabalho remota deve ser desabilitado ou altamente restrito. Restringir o acesso ao Windows Explorer ocultando mapeamentos de unidades locais e remotas também é uma medida segura a ser adotada, impedindo que os usuários descubram informações indesejadas sobre a configuração do sistema e os usuários.</t>
         </is>
       </c>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6257,14 +6222,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide#other-security-tips-for-session-hosts</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
+          <t>7ce2cd20-85b4-4f82-828e-6558736ede6a</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6275,22 +6240,22 @@
     <row r="112" ht="16.5" customHeight="1">
       <c r="A112" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Verificar as práticas recomendadas para Arquivos do Azure (se usado)</t>
+          <t>Quando possível, prefira Aplicativos Remotos em vez de Áreas de Trabalho Completas (DAG)</t>
         </is>
       </c>
       <c r="D112" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de verificar a lista de práticas recomendadas e recomendações descritas no artigo referenciado.</t>
+          <t>Ao escolher um modelo de implantação, você pode fornecer aos usuários remotos acesso a áreas de trabalho virtuais inteiras ou apenas selecionar aplicativos. Os aplicativos remotos, ou RemoteApps, fornecem uma experiência perfeita à medida que o usuário trabalha com aplicativos em sua área de trabalho virtual. Os RemoteApps reduzem o risco permitindo que o usuário trabalhe apenas com um subconjunto da máquina remota exposta pelo aplicativo.</t>
         </is>
       </c>
       <c r="E112" s="21" t="inlineStr">
@@ -6306,7 +6271,7 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/web-protection-overview</t>
         </is>
       </c>
       <c r="I112" s="15" t="n"/>
@@ -6314,7 +6279,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
+          <t>4e25d70e-3924-44f4-b66f-d6cdd4f4a973</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6325,22 +6290,22 @@
     <row r="113" ht="16.5" customHeight="1">
       <c r="A113" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Verificar as práticas recomendadas para arquivos NetApp (se usado)</t>
+          <t>Precisa controlar/restringir a navegação do usuário na Internet a partir de hosts de sessão AVD?</t>
         </is>
       </c>
       <c r="D113" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de verificar a lista de práticas recomendadas e recomendações descritas no artigo referenciado.</t>
+          <t>O recurso de filtragem de conteúdo da Web fornecido pelo recurso Proteção da Web no Microsoft Defender for Endpoint pode ser usado para controlar a navegação na Web do usuário. Se essa ferramenta for usada, recomenda-se a configuração da filtragem da Web para navegação do usuário na Internet. O acesso pelo sistema operacional convidado às URLs necessárias do plano de controle AVD deve ser garantido.</t>
         </is>
       </c>
       <c r="E113" s="21" t="inlineStr">
@@ -6356,7 +6321,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/web-protection-overview</t>
         </is>
       </c>
       <c r="I113" s="15" t="n"/>
@@ -6364,7 +6329,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
+          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6375,22 +6340,22 @@
     <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Revise e confirme o tamanho máximo do perfil configurado no FSLogix</t>
+          <t>Garantir que os usuários do AVD não terão privilégios de administrador local em hosts AVD</t>
         </is>
       </c>
       <c r="D114" s="21" t="inlineStr">
         <is>
-          <t>Os contêineres de perfil têm um tamanho máximo padrão de 30 GB. Se os Contêineres de Perfil grandes forem antecipados e os clientes quiserem tentar mantê-los pequenos, considere usar o OneDrive para hospedar arquivos do Office 365 fora do perfil FSLogix.</t>
+          <t>Recomendamos que você não conceda aos usuários acesso de administrador a áreas de trabalho virtuais. Se você precisar de pacotes de software, recomendamos disponibilizá-los por meio de utilitários de gerenciamento de configuração.</t>
         </is>
       </c>
       <c r="E114" s="21" t="inlineStr">
@@ -6406,7 +6371,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6414,7 +6379,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
+          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6425,22 +6390,22 @@
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Se o FSLogix Cloud Cache for usado, mova o diretório Cache para a unidade temporária.</t>
+          <t>Habilitar o Microsoft Defender for Cloud para gerenciar a postura de segurança dos hosts de sessão AVD</t>
         </is>
       </c>
       <c r="D115" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Cloud Cache usa o disco local como cache e pode gerar muita pressão no disco da VM. Recomendado para aproveitar o poder do disco de VM temporário (e conectado localmente), se possível com base no SKU da VM. </t>
+          <t>Recomendamos que você habilite o Defender for Cloud para assinaturas, máquinas virtuais, cofres de chaves e contas de armazenamento usadas pelo AVD. Com esta ferramenta é possível avaliar e gerenciar vulnerabilidades, avaliar a conformidade com estruturas comuns como PCI, fortalecer a segurança geral do seu ambiente AVD e medi-la ao longo do tempo usando 'Secure Score': https://learn.microsoft.com/en-us/azure/virtual-desktop/security-guide#improve-your-secure-score.</t>
         </is>
       </c>
       <c r="E115" s="21" t="inlineStr">
@@ -6456,14 +6421,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide#enable-microsoft-defender-for-cloud</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
+          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6474,22 +6439,22 @@
     <row r="116" ht="16.5" customHeight="1">
       <c r="A116" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Revise o uso do redirecionamento FSLogix.</t>
+          <t>Habilitar o log de diagnóstico e auditoria</t>
         </is>
       </c>
       <c r="D116" s="21" t="inlineStr">
         <is>
-          <t>REDIRECTION.XML arquivo é usado para controlar quais pastas são redirecionadas do contêiner de perfil para a unidade C:. As exclusões devem ser a exceção e nunca devem ser usadas a menos que a exclusão específica seja completamente compreendida pela pessoa que configura a exclusão. As exclusões devem ser sempre totalmente testadas no ambiente em que se destinam a ser implementadas. A configuração de exclusões pode afetar a funcionalidade, a estabilidade e o desempenho.</t>
+          <t xml:space="preserve">Habilitar a coleta de logs de auditoria permite exibir atividades de usuário e administrador relacionadas à Área de Trabalho Virtual do Azure e armazená-la em um repositório central, como o espaço de trabalho do Log Analytics. </t>
         </is>
       </c>
       <c r="E116" s="21" t="inlineStr">
@@ -6505,14 +6470,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide#collect-audit-logs</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
+          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6523,27 +6488,27 @@
     <row r="117" ht="16.5" customHeight="1">
       <c r="A117" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Se o armazenamento de Arquivos NetApp do Azure for usado, verifique a configuração Nome do Site do AD na Conexão do AD.</t>
+          <t>Avaliar o requisito de usar funções RBAC personalizadas para gerenciamento de AVD</t>
         </is>
       </c>
       <c r="D117" s="21" t="inlineStr">
         <is>
-          <t>Um Site do Active Directory deve ser criado para o ambiente de rede virtual do Azure onde a sub-rede ANF será criada, e esse nome de site deve ser especificado na propriedade de conexão ANF ao executar o procedimento de associação, conforme explicado no artigo de referência.</t>
+          <t>Atribua o privilégio mínimo necessário definindo funções administrativas, de operações e de engenharia às funções RBAC do Azure. Para limitar o acesso a funções de alto privilégio na zona de aterrissagem da Área de Trabalho Virtual do Azure, considere a integração com o PIM (Gerenciamento de Identidades Privilegiadas) do Azure. Manter o conhecimento de qual equipe é responsável por cada área administrativa específica ajuda a determinar as funções e a configuração do RBAC (controle de acesso baseado em função) do Azure.</t>
         </is>
       </c>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6554,14 +6519,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
+          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6572,22 +6537,22 @@
     <row r="118" ht="16.5" customHeight="1">
       <c r="A118" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestão</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Habilite o SMB multicanal ao usar um compartilhamento de arquivos premium para hospedar contêineres de perfil FSLogix.</t>
+          <t>Impedir que os usuários instalem aplicativos não autorizados</t>
         </is>
       </c>
       <c r="D118" s="21" t="inlineStr">
         <is>
-          <t>O SMB Multichannel permite que os clientes usem várias conexões de rede que fornecem maior desempenho e, ao mesmo tempo, reduzem o custo de propriedade. O desempenho aprimorado é obtido por meio da agregação de largura de banda em várias NICs e da utilização do suporte a RSS (Receive Side Scaling) para NICs para distribuir a carga de E/S em várias CPUs.</t>
+          <t xml:space="preserve">Os usuários do AVD não devem ter permissão para instalar o aplicativo. Se necessário, o WDAC (Windows Defender Application Control) pode ser usado para controlar quais drivers e aplicativos têm permissão para serem executados em seus clientes Windows. </t>
         </is>
       </c>
       <c r="E118" s="21" t="inlineStr">
@@ -6603,7 +6568,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/storage/files/storage-files-smb-multichannel-performance</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide#windows-defender-application-control</t>
         </is>
       </c>
       <c r="I118" s="15" t="n"/>
@@ -6611,7 +6576,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>5784b6ca-5e9e-4bcf-8b54-c95459ea7369</t>
+          <t>b9ea80c8-0628-49fc-ae63-125aa4c0a284</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6622,22 +6587,22 @@
     <row r="119" ht="16.5" customHeight="1">
       <c r="A119" s="21" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Host da Sessão </t>
+          <t>Microsoft Entra ID</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinar qual tipo de disco gerenciado será usado para os hosts de sessão  </t>
+          <t>Avaliar o uso de MFA (Multi-Factor Authentication) e CA (Acesso Condicional) para usuários AVD</t>
         </is>
       </c>
       <c r="D119" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">HDD padrão, SSD padrão ou SSD Premium, discos efêmeros não são suportados, Ultra-Disks não recomendados. Recomendado para avaliar o disco Premium para SO se a densidade do usuário não for baixa e se você for usar o Cloud Cache. </t>
+          <t>A habilitação da MFA e da CA permite que você gerencie riscos antes de conceder aos usuários acesso ao seu ambiente AVD. Ao decidir a quais usuários conceder acesso, recomendamos que você também considere quem é o usuário, como ele entra e qual dispositivo está usando. Detalhes adicionais e procedimentos de configuração são fornecidos no artigo complementar. A ID do Microsoft Entra é o novo nome do Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="E119" s="21" t="inlineStr">
@@ -6653,14 +6618,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
+          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6669,294 +6634,888 @@
       <c r="P119" s="25" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1">
-      <c r="A120" s="21" t="n"/>
-      <c r="B120" s="21" t="n"/>
-      <c r="C120" s="21" t="n"/>
-      <c r="D120" s="21" t="n"/>
-      <c r="E120" s="21" t="n"/>
+      <c r="A120" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="B120" s="21" t="inlineStr">
+        <is>
+          <t>Confiança Zero</t>
+        </is>
+      </c>
+      <c r="C120" s="21" t="inlineStr">
+        <is>
+          <t>Revise e aplique os princípios e diretrizes do Zero Trust</t>
+        </is>
+      </c>
+      <c r="D120" s="21" t="inlineStr">
+        <is>
+          <t>Se Zero Trust for um requisito, revise o artigo complementar na coluna 'Mais informações'. Ele fornece etapas para aplicar os princípios de Confiança Zero a uma implantação de Área de Trabalho Virtual do Azure.</t>
+        </is>
+      </c>
+      <c r="E120" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G120" s="21" t="n"/>
-      <c r="H120" s="15" t="n"/>
+      <c r="H120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/zero-trust/azure-infrastructure-avd</t>
+        </is>
+      </c>
       <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
-      <c r="L120" s="25" t="n"/>
+      <c r="L120" s="25" t="inlineStr">
+        <is>
+          <t>221102d0-90af-49fc-b2b7-8d3fe397e43</t>
+        </is>
+      </c>
       <c r="M120" s="25" t="n"/>
       <c r="N120" s="25" t="n"/>
       <c r="O120" s="25" t="n"/>
       <c r="P120" s="25" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
-      <c r="A121" s="21" t="n"/>
-      <c r="B121" s="21" t="n"/>
-      <c r="C121" s="21" t="n"/>
-      <c r="D121" s="21" t="n"/>
-      <c r="E121" s="21" t="n"/>
+      <c r="A121" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento</t>
+        </is>
+      </c>
+      <c r="B121" s="21" t="inlineStr">
+        <is>
+          <t>Arquivos do Azure</t>
+        </is>
+      </c>
+      <c r="C121" s="21" t="inlineStr">
+        <is>
+          <t>Verificar as práticas recomendadas para Arquivos do Azure</t>
+        </is>
+      </c>
+      <c r="D121" s="21" t="inlineStr">
+        <is>
+          <t>Se usado, certifique-se de verificar a lista de práticas recomendadas e recomendações descritas no artigo referenciado.</t>
+        </is>
+      </c>
+      <c r="E121" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G121" s="21" t="n"/>
-      <c r="H121" s="15" t="n"/>
+      <c r="H121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files#best-practices-for-azure-virtual-desktop</t>
+        </is>
+      </c>
       <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
-      <c r="L121" s="25" t="n"/>
+      <c r="L121" s="25" t="inlineStr">
+        <is>
+          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
+        </is>
+      </c>
       <c r="M121" s="25" t="n"/>
       <c r="N121" s="25" t="n"/>
       <c r="O121" s="25" t="n"/>
       <c r="P121" s="25" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1">
-      <c r="A122" s="21" t="n"/>
-      <c r="B122" s="21" t="n"/>
-      <c r="C122" s="21" t="n"/>
-      <c r="D122" s="21" t="n"/>
-      <c r="E122" s="21" t="n"/>
+      <c r="A122" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento</t>
+        </is>
+      </c>
+      <c r="B122" s="21" t="inlineStr">
+        <is>
+          <t>Arquivos do Azure</t>
+        </is>
+      </c>
+      <c r="C122" s="21" t="inlineStr">
+        <is>
+          <t>Habilite o SMB multicanal ao usar um compartilhamento de arquivos premium para hospedar contêineres de perfil FSLogix.</t>
+        </is>
+      </c>
+      <c r="D122" s="21" t="inlineStr">
+        <is>
+          <t>O SMB Multichannel permite que os clientes usem várias conexões de rede que fornecem maior desempenho e, ao mesmo tempo, reduzem o custo de propriedade. O desempenho aprimorado é obtido por meio da agregação de largura de banda em várias NICs e da utilização do suporte a RSS (Receive Side Scaling) para NICs para distribuir a carga de E/S em várias CPUs.</t>
+        </is>
+      </c>
+      <c r="E122" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="n"/>
+      <c r="H122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/files/storage-files-smb-multichannel-performance</t>
+        </is>
+      </c>
       <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
-      <c r="L122" s="25" t="n"/>
+      <c r="L122" s="25" t="inlineStr">
+        <is>
+          <t>5784b6ca-5e9e-4bcf-8b54-c95459ea7369</t>
+        </is>
+      </c>
       <c r="M122" s="25" t="n"/>
       <c r="N122" s="25" t="n"/>
       <c r="O122" s="25" t="n"/>
       <c r="P122" s="25" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
-      <c r="A123" s="21" t="n"/>
-      <c r="B123" s="21" t="n"/>
-      <c r="C123" s="21" t="n"/>
-      <c r="D123" s="21" t="n"/>
-      <c r="E123" s="21" t="n"/>
+      <c r="A123" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento</t>
+        </is>
+      </c>
+      <c r="B123" s="21" t="inlineStr">
+        <is>
+          <t>Azure NetApp Files</t>
+        </is>
+      </c>
+      <c r="C123" s="21" t="inlineStr">
+        <is>
+          <t>Se o armazenamento do NetApp Files for necessário, verifique a disponibilidade do serviço de armazenamento em sua região específica.</t>
+        </is>
+      </c>
+      <c r="D123" s="21" t="inlineStr">
+        <is>
+          <t>Se uma segunda região for necessária para fins de DR, verifique a disponibilidade da NetApp lá também.</t>
+        </is>
+      </c>
+      <c r="E123" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G123" s="21" t="n"/>
-      <c r="H123" s="15" t="n"/>
+      <c r="H123" s="15" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+        </is>
+      </c>
       <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
-      <c r="L123" s="25" t="n"/>
+      <c r="L123" s="25" t="inlineStr">
+        <is>
+          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
+        </is>
+      </c>
       <c r="M123" s="25" t="n"/>
       <c r="N123" s="25" t="n"/>
       <c r="O123" s="25" t="n"/>
       <c r="P123" s="25" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
-      <c r="A124" s="21" t="n"/>
-      <c r="B124" s="21" t="n"/>
-      <c r="C124" s="21" t="n"/>
-      <c r="D124" s="21" t="n"/>
-      <c r="E124" s="21" t="n"/>
+      <c r="A124" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento</t>
+        </is>
+      </c>
+      <c r="B124" s="21" t="inlineStr">
+        <is>
+          <t>Azure NetApp Files</t>
+        </is>
+      </c>
+      <c r="C124" s="21" t="inlineStr">
+        <is>
+          <t>Se o armazenamento NetApp Files for usado, habilite a opção CA (Continuous Availability) para aumentar a resiliência</t>
+        </is>
+      </c>
+      <c r="D124" s="21" t="inlineStr">
+        <is>
+          <t>A opção CA é uma configuração recomendada no cenário FSLogix, pois permite uma sessão SMB mais resiliente entre o Host da Sessão e os Arquivos NetApp.</t>
+        </is>
+      </c>
+      <c r="E124" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G124" s="21" t="n"/>
-      <c r="H124" s="15" t="n"/>
+      <c r="H124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-fslogix-profile-container</t>
+        </is>
+      </c>
       <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
-      <c r="L124" s="25" t="n"/>
+      <c r="L124" s="25" t="inlineStr">
+        <is>
+          <t>a2661898-866a-4c8d-9d1f-8cfc86e88024</t>
+        </is>
+      </c>
       <c r="M124" s="25" t="n"/>
       <c r="N124" s="25" t="n"/>
       <c r="O124" s="25" t="n"/>
       <c r="P124" s="25" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1">
-      <c r="A125" s="21" t="n"/>
-      <c r="B125" s="21" t="n"/>
-      <c r="C125" s="21" t="n"/>
-      <c r="D125" s="21" t="n"/>
-      <c r="E125" s="21" t="n"/>
+      <c r="A125" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento</t>
+        </is>
+      </c>
+      <c r="B125" s="21" t="inlineStr">
+        <is>
+          <t>Azure NetApp Files</t>
+        </is>
+      </c>
+      <c r="C125" s="21" t="inlineStr">
+        <is>
+          <t>Se o armazenamento de Arquivos NetApp do Azure for usado, verifique a configuração Nome do Site do Active Directory na configuração de Conexão do Active Directory</t>
+        </is>
+      </c>
+      <c r="D125" s="21" t="inlineStr">
+        <is>
+          <t>Um Site do Active Directory deve ser criado para o ambiente de rede virtual do Azure onde a sub-rede ANF (Azure NetApp Files) será criada, e esse nome de site deve ser especificado na propriedade de conexão ANF ao executar o procedimento de associação, conforme explicado no artigo de referência.</t>
+        </is>
+      </c>
+      <c r="E125" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="n"/>
+      <c r="H125" s="15" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-netapp-files/create-active-directory-connections</t>
+        </is>
+      </c>
       <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
-      <c r="L125" s="25" t="n"/>
+      <c r="L125" s="25" t="inlineStr">
+        <is>
+          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
+        </is>
+      </c>
       <c r="M125" s="25" t="n"/>
       <c r="N125" s="25" t="n"/>
       <c r="O125" s="25" t="n"/>
       <c r="P125" s="25" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
-      <c r="A126" s="21" t="n"/>
-      <c r="B126" s="21" t="n"/>
-      <c r="C126" s="21" t="n"/>
-      <c r="D126" s="21" t="n"/>
-      <c r="E126" s="21" t="n"/>
+      <c r="A126" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento</t>
+        </is>
+      </c>
+      <c r="B126" s="21" t="inlineStr">
+        <is>
+          <t>Planejamento de Capacidade</t>
+        </is>
+      </c>
+      <c r="C126" s="21" t="inlineStr">
+        <is>
+          <t>Determinar qual tipo de disco gerenciado será usado para os hosts de sessão</t>
+        </is>
+      </c>
+      <c r="D126" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Opções possíveis: HDD padrão, SSD padrão ou SSD premium. Discos efêmeros não são suportados, Ultra-Disks não recomendados. Recomendado para avaliar o disco Premium para SO se a densidade do usuário não for baixa e se o Cloud Cache for usado. </t>
+        </is>
+      </c>
+      <c r="E126" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G126" s="21" t="n"/>
-      <c r="H126" s="15" t="n"/>
+      <c r="H126" s="15" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+        </is>
+      </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
-      <c r="L126" s="25" t="n"/>
+      <c r="L126" s="25" t="inlineStr">
+        <is>
+          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
+        </is>
+      </c>
       <c r="M126" s="25" t="n"/>
       <c r="N126" s="25" t="n"/>
       <c r="O126" s="25" t="n"/>
       <c r="P126" s="25" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
-      <c r="A127" s="21" t="n"/>
-      <c r="B127" s="21" t="n"/>
-      <c r="C127" s="21" t="n"/>
-      <c r="D127" s="21" t="n"/>
-      <c r="E127" s="21" t="n"/>
+      <c r="A127" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento</t>
+        </is>
+      </c>
+      <c r="B127" s="21" t="inlineStr">
+        <is>
+          <t>Planejamento de Capacidade</t>
+        </is>
+      </c>
+      <c r="C127" s="21" t="inlineStr">
+        <is>
+          <t>Determinar qual solução de back-end de armazenamento será usada para perfis FSLogix</t>
+        </is>
+      </c>
+      <c r="D127" s="21" t="inlineStr">
+        <is>
+          <t>As opções possíveis são: Arquivos do Azure NetApp, Arquivos do Azure, Servidor de Arquivos baseado em VM. Servidor de arquivos não é recomendado. O Azure Files Premium normalmente é um bom ponto de partida. NetApp geralmente necessário para ambiente de grande escala / alto desempenho. Para uma comparação detalhada, consulte o artigo na coluna 'Mais informações'.</t>
+        </is>
+      </c>
+      <c r="E127" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="n"/>
+      <c r="H127" s="15" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+        </is>
+      </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
-      <c r="L127" s="25" t="n"/>
+      <c r="L127" s="25" t="inlineStr">
+        <is>
+          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
+        </is>
+      </c>
       <c r="M127" s="25" t="n"/>
       <c r="N127" s="25" t="n"/>
       <c r="O127" s="25" t="n"/>
       <c r="P127" s="25" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1">
-      <c r="A128" s="21" t="n"/>
-      <c r="B128" s="21" t="n"/>
-      <c r="C128" s="21" t="n"/>
-      <c r="D128" s="21" t="n"/>
-      <c r="E128" s="21" t="n"/>
+      <c r="A128" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento</t>
+        </is>
+      </c>
+      <c r="B128" s="21" t="inlineStr">
+        <is>
+          <t>Planejamento de Capacidade</t>
+        </is>
+      </c>
+      <c r="C128" s="21" t="inlineStr">
+        <is>
+          <t>Não compartilhe armazenamento e perfis entre pools de hosts diferentes</t>
+        </is>
+      </c>
+      <c r="D128" s="21" t="inlineStr">
+        <is>
+          <t>Cada Pool de Hosts deve usar um conjunto separado de contas/volumes de armazenamento (pelo menos um) e compartilhamentos. Os usuários devem ter um perfil diferente para cada Pool de Hosts, pois as configurações são específicas para cada Pool de Hosts. Além disso, acessar diferentes pools de hosts ao mesmo tempo pode causar erros no perfil de usuário compartilhado VHD/X. O uso de diferentes contas/volumes de armazenamento para vários compartilhamentos também é recomendado para dimensionar de forma independente.</t>
+        </is>
+      </c>
+      <c r="E128" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="n"/>
+      <c r="H128" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+        </is>
+      </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
-      <c r="L128" s="25" t="n"/>
+      <c r="L128" s="25" t="inlineStr">
+        <is>
+          <t>2fad62bd-5004-453c-ace4-64d862e7f5a4</t>
+        </is>
+      </c>
       <c r="M128" s="25" t="n"/>
       <c r="N128" s="25" t="n"/>
       <c r="O128" s="25" t="n"/>
       <c r="P128" s="25" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="21" t="n"/>
-      <c r="B129" s="21" t="n"/>
-      <c r="C129" s="21" t="n"/>
-      <c r="D129" s="21" t="n"/>
-      <c r="E129" s="21" t="n"/>
+      <c r="A129" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento</t>
+        </is>
+      </c>
+      <c r="B129" s="21" t="inlineStr">
+        <is>
+          <t>Planejamento de Capacidade</t>
+        </is>
+      </c>
+      <c r="C129" s="21" t="inlineStr">
+        <is>
+          <t>Verificar os limites de escalabilidade de armazenamento e os requisitos do Pool de Hosts</t>
+        </is>
+      </c>
+      <c r="D129" s="21" t="inlineStr">
+        <is>
+          <t>Como ponto de partida para estimar os requisitos de desempenho de armazenamento de contêiner de perfil, recomendamos assumir 10 IOPS por usuário no estado estacionário e 50 IOPS por usuário durante a entrada/saída. Os requisitos de espaço são simplesmente obtidos com base no tamanho máximo de perfis no FSLogix pelo número total de usuários para cada Pool de Hosts. Várias contas de armazenamento podem ser usadas para o mesmo Pool de Hosts, se necessário.</t>
+        </is>
+      </c>
+      <c r="E129" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="n"/>
+      <c r="H129" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/faq#what-s-the-largest-profile-size-fslogix-can-handle-</t>
+        </is>
+      </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
-      <c r="L129" s="25" t="n"/>
+      <c r="L129" s="25" t="inlineStr">
+        <is>
+          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
+        </is>
+      </c>
       <c r="M129" s="25" t="n"/>
       <c r="N129" s="25" t="n"/>
       <c r="O129" s="25" t="n"/>
       <c r="P129" s="25" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
-      <c r="A130" s="21" t="n"/>
-      <c r="B130" s="21" t="n"/>
-      <c r="C130" s="21" t="n"/>
-      <c r="D130" s="21" t="n"/>
-      <c r="E130" s="21" t="n"/>
+      <c r="A130" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento</t>
+        </is>
+      </c>
+      <c r="B130" s="21" t="inlineStr">
+        <is>
+          <t>Planejamento de Capacidade</t>
+        </is>
+      </c>
+      <c r="C130" s="21" t="inlineStr">
+        <is>
+          <t>Para obter o desempenho ideal, a solução de armazenamento e o contêiner de perfil FSLogix devem estar na mesma região do Azure.</t>
+        </is>
+      </c>
+      <c r="D130" s="21" t="inlineStr">
+        <is>
+          <t>Evite introduzir latência e custos adicionais associados ao tráfego de rede entre regiões, sempre que possível.</t>
+        </is>
+      </c>
+      <c r="E130" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="n"/>
+      <c r="H130" s="15" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
+        </is>
+      </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
-      <c r="L130" s="25" t="n"/>
+      <c r="L130" s="25" t="inlineStr">
+        <is>
+          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
+        </is>
+      </c>
       <c r="M130" s="25" t="n"/>
       <c r="N130" s="25" t="n"/>
       <c r="O130" s="25" t="n"/>
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="n"/>
-      <c r="B131" s="21" t="n"/>
-      <c r="C131" s="21" t="n"/>
-      <c r="D131" s="21" t="n"/>
-      <c r="E131" s="21" t="n"/>
+      <c r="A131" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento</t>
+        </is>
+      </c>
+      <c r="B131" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix</t>
+        </is>
+      </c>
+      <c r="C131" s="21" t="inlineStr">
+        <is>
+          <t>Não use Contêineres do Office (ODFC) se não for estritamente necessário e justificado</t>
+        </is>
+      </c>
+      <c r="D131" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A recomendação na Área de Trabalho Virtual do Azure é usar o Contêiner de Perfil sem divisão ODFC (Contêiner do Office), a menos que você esteja planejando cenários específicos de BCDR (Business Continuity and Disaster Recovery), conforme descrito na seção Recuperação de Desastres abaixo. https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
+        </is>
+      </c>
+      <c r="E131" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="n"/>
+      <c r="H131" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fslogix/concepts-container-types#when-to-use-profile-and-odfc-containers</t>
+        </is>
+      </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="n"/>
+      <c r="L131" s="25" t="inlineStr">
+        <is>
+          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
+        </is>
+      </c>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
       <c r="P131" s="25" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1">
-      <c r="A132" s="21" t="n"/>
-      <c r="B132" s="21" t="n"/>
-      <c r="C132" s="21" t="n"/>
-      <c r="D132" s="21" t="n"/>
-      <c r="E132" s="21" t="n"/>
+      <c r="A132" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento</t>
+        </is>
+      </c>
+      <c r="B132" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix</t>
+        </is>
+      </c>
+      <c r="C132" s="21" t="inlineStr">
+        <is>
+          <t>Configure as exclusões de antivírus recomendadas para FSLogix (inclui não examinar arquivos VHD(x) na conexão).</t>
+        </is>
+      </c>
+      <c r="D132" s="21" t="inlineStr">
+        <is>
+          <t>Certifique-se de configurar as seguintes exclusões de antivírus para discos rígidos virtuais FSLogix Profile Container, conforme documentado no artigo referenciado na coluna 'Mais informações'.</t>
+        </is>
+      </c>
+      <c r="E132" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="n"/>
+      <c r="H132" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fslogix/overview-prerequisites#configure-antivirus-file-and-folder-exclusions</t>
+        </is>
+      </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
-      <c r="L132" s="25" t="n"/>
+      <c r="L132" s="25" t="inlineStr">
+        <is>
+          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
+        </is>
+      </c>
       <c r="M132" s="25" t="n"/>
       <c r="N132" s="25" t="n"/>
       <c r="O132" s="25" t="n"/>
       <c r="P132" s="25" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1">
-      <c r="A133" s="21" t="n"/>
-      <c r="B133" s="21" t="n"/>
-      <c r="C133" s="21" t="n"/>
-      <c r="D133" s="21" t="n"/>
-      <c r="E133" s="21" t="n"/>
+      <c r="A133" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento</t>
+        </is>
+      </c>
+      <c r="B133" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix</t>
+        </is>
+      </c>
+      <c r="C133" s="21" t="inlineStr">
+        <is>
+          <t>Revise e confirme o tamanho máximo do perfil configurado no FSLogix</t>
+        </is>
+      </c>
+      <c r="D133" s="21" t="inlineStr">
+        <is>
+          <t>Os contêineres de perfil têm um tamanho máximo padrão de 30 GB. Se os Contêineres de Perfil grandes forem antecipados e os clientes quiserem tentar mantê-los pequenos, considere usar o OneDrive para hospedar arquivos do Office 365 fora do perfil FSLogix.</t>
+        </is>
+      </c>
+      <c r="E133" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G133" s="21" t="n"/>
-      <c r="H133" s="15" t="n"/>
+      <c r="H133" s="15" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+        </is>
+      </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
-      <c r="L133" s="25" t="n"/>
+      <c r="L133" s="25" t="inlineStr">
+        <is>
+          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
+        </is>
+      </c>
       <c r="M133" s="25" t="n"/>
       <c r="N133" s="25" t="n"/>
       <c r="O133" s="25" t="n"/>
       <c r="P133" s="25" t="n"/>
     </row>
     <row r="134" ht="16.5" customHeight="1">
-      <c r="A134" s="21" t="n"/>
-      <c r="B134" s="21" t="n"/>
-      <c r="C134" s="21" t="n"/>
-      <c r="D134" s="21" t="n"/>
-      <c r="E134" s="21" t="n"/>
+      <c r="A134" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento</t>
+        </is>
+      </c>
+      <c r="B134" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix</t>
+        </is>
+      </c>
+      <c r="C134" s="21" t="inlineStr">
+        <is>
+          <t>Revise as chaves do Registro FSLogix e determine quais aplicar</t>
+        </is>
+      </c>
+      <c r="D134" s="21" t="inlineStr">
+        <is>
+          <t>Os padrões e as configurações recomendadas são relatados no artigo complementar na coluna 'Mais informações'. Se chaves e/ou valores não recomendados precisarem ser usados, certifique-se de revisar com um especialista em AVD da Microsoft e documentar claramente suas escolhas.</t>
+        </is>
+      </c>
+      <c r="E134" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G134" s="21" t="n"/>
-      <c r="H134" s="15" t="n"/>
+      <c r="H134" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fslogix/concepts-configuration-examples</t>
+        </is>
+      </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
-      <c r="L134" s="25" t="n"/>
+      <c r="L134" s="25" t="inlineStr">
+        <is>
+          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
+        </is>
+      </c>
       <c r="M134" s="25" t="n"/>
       <c r="N134" s="25" t="n"/>
       <c r="O134" s="25" t="n"/>
       <c r="P134" s="25" t="n"/>
     </row>
     <row r="135" ht="16.5" customHeight="1">
-      <c r="A135" s="21" t="n"/>
-      <c r="B135" s="21" t="n"/>
-      <c r="C135" s="21" t="n"/>
-      <c r="D135" s="21" t="n"/>
-      <c r="E135" s="21" t="n"/>
+      <c r="A135" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento</t>
+        </is>
+      </c>
+      <c r="B135" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix</t>
+        </is>
+      </c>
+      <c r="C135" s="21" t="inlineStr">
+        <is>
+          <t>Evite o uso de conexões simultâneas ou múltiplas</t>
+        </is>
+      </c>
+      <c r="D135" s="21" t="inlineStr">
+        <is>
+          <t>Conexões simultâneas ou múltiplas não são recomendadas na Área de Trabalho Virtual do Azure. Conexões simultâneas também não são suportadas por Hosts de Sessão em execução em um Pool de Host de Área de Trabalho Virtual do Azure. O OneDrive, se usado, não oferece suporte a conexões simultâneas ou múltiplas usando o mesmo contêiner, em nenhuma circunstância. Para várias conexões, o uso do mesmo disco de perfil não é recomendado.</t>
+        </is>
+      </c>
+      <c r="E135" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G135" s="21" t="n"/>
-      <c r="H135" s="15" t="n"/>
+      <c r="H135" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fslogix/concepts-multi-concurrent-connections</t>
+        </is>
+      </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
-      <c r="L135" s="25" t="n"/>
+      <c r="L135" s="25" t="inlineStr">
+        <is>
+          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
+        </is>
+      </c>
       <c r="M135" s="25" t="n"/>
       <c r="N135" s="25" t="n"/>
       <c r="O135" s="25" t="n"/>
       <c r="P135" s="25" t="n"/>
     </row>
     <row r="136" ht="16.5" customHeight="1">
-      <c r="A136" s="21" t="n"/>
-      <c r="B136" s="21" t="n"/>
-      <c r="C136" s="21" t="n"/>
-      <c r="D136" s="21" t="n"/>
-      <c r="E136" s="21" t="n"/>
+      <c r="A136" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento</t>
+        </is>
+      </c>
+      <c r="B136" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix</t>
+        </is>
+      </c>
+      <c r="C136" s="21" t="inlineStr">
+        <is>
+          <t>Se o FSLogix Cloud Cache for usado, considere mover o diretório de cache para a unidade temporária da VM.</t>
+        </is>
+      </c>
+      <c r="D136" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">O Cloud Cache usa a unidade do sistema operacional como armazenamento de cache local e pode gerar muita pressão no disco da VM. Dependendo da SKU da VM e do tamanho usado, a unidade temporária da VM pode ser uma solução viável e eficiente para realocar o conteúdo armazenado em cache do Cloud Cache. Antes de adotar esta solução, testes devem ser executados para confirmar o desempenho e a estabilidade. Mais detalhes sobre o Cloud Cache podem ser encontrados aqui: https://learn.microsoft.com/en-us/fslogix/concepts-fslogix-cloud-cache. </t>
+        </is>
+      </c>
+      <c r="E136" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G136" s="21" t="n"/>
-      <c r="H136" s="15" t="n"/>
+      <c r="H136" s="15" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
+        </is>
+      </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
-      <c r="L136" s="25" t="n"/>
+      <c r="L136" s="25" t="inlineStr">
+        <is>
+          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
+        </is>
+      </c>
       <c r="M136" s="25" t="n"/>
       <c r="N136" s="25" t="n"/>
       <c r="O136" s="25" t="n"/>
       <c r="P136" s="25" t="n"/>
     </row>
     <row r="137" ht="16.5" customHeight="1">
-      <c r="A137" s="21" t="n"/>
-      <c r="B137" s="21" t="n"/>
-      <c r="C137" s="21" t="n"/>
-      <c r="D137" s="21" t="n"/>
-      <c r="E137" s="21" t="n"/>
+      <c r="A137" s="21" t="inlineStr">
+        <is>
+          <t>Armazenamento</t>
+        </is>
+      </c>
+      <c r="B137" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix</t>
+        </is>
+      </c>
+      <c r="C137" s="21" t="inlineStr">
+        <is>
+          <t>Revise o uso do redirecionamento FSLogix.</t>
+        </is>
+      </c>
+      <c r="D137" s="21" t="inlineStr">
+        <is>
+          <t>REDIRECTION.XML arquivo é usado para controlar quais pastas são redirecionadas do contêiner de perfil para a unidade 'C:'. As exclusões devem ser a exceção e nunca devem ser usadas a menos que a exclusão específica seja completamente compreendida pela pessoa que configura a exclusão. As exclusões devem ser sempre totalmente testadas no ambiente em que se destinam a ser implementadas. A configuração de exclusões pode afetar a funcionalidade, a estabilidade e o desempenho.</t>
+        </is>
+      </c>
+      <c r="E137" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G137" s="21" t="n"/>
-      <c r="H137" s="15" t="n"/>
+      <c r="H137" s="15" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
+        </is>
+      </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
-      <c r="L137" s="25" t="n"/>
+      <c r="L137" s="25" t="inlineStr">
+        <is>
+          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
+        </is>
+      </c>
       <c r="M137" s="25" t="n"/>
       <c r="N137" s="25" t="n"/>
       <c r="O137" s="25" t="n"/>
@@ -9415,20 +9974,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -9440,123 +10097,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F120" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F138" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -9711,7 +10253,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -9733,7 +10275,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -9772,21 +10314,21 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Monitoramento e Gerenciamento</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Monitoramento e Gerenciamento</t>
+          <t>Segurança</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidade de negócios e recuperação de desastres</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/macrofree/avd_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/avd_checklist.pt.xlsx
@@ -1124,7 +1124,7 @@
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>O modelo 'Ativo-Ativo' pode ser alcançado com vários pools de hosts em diferentes regiões. Um único Pool de Hosts com VMs de regiões diferentes não é recomendado. Se vários pools para os mesmos usuários forem usados, o problema de como sincronizar/replicar perfis de usuário deverá ser resolvido. O FSLogix Cloud Cache pode ser usado, mas precisa ser cuidadosamente revisado e planejado, ou os clientes podem decidir não sincronizar/replicar. 'Ativo-Passivo' pode ser obtido usando o Azure Site Recovery (ASR) ou a implantação de Pool sob demanda com mecanismo automatizado. Para uma discussão detalhada sobre BCDR de várias regiões, leia o artigo complementar na coluna 'Mais informações' e esta página relacionada ao FSLogix: https://learn.microsoft.com/en-us/fslogix/concepts-container-recovery-business-continuity.</t>
+          <t>O modelo 'Ativo-Ativo' pode ser alcançado com vários pools de hosts em diferentes regiões. Um único Pool de Hosts com VMs de regiões diferentes não é recomendado. Se vários pools para os mesmos usuários forem usados, o problema de como sincronizar/replicar perfis de usuário deverá ser resolvido. O FSLogix Cloud Cache pode ser usado, mas precisa ser cuidadosamente revisado e planejado, ou os clientes podem decidir não sincronizar/replicar. 'Ativo-Passivo' pode ser obtido usando o Azure Site Recovery (ASR) ou a implantação de Pool sob demanda com mecanismo automatizado. Para uma discussão detalhada sobre BCDR de várias regiões, leia o artigo complementar na coluna 'Mais informações' e esta página relacionada ao FSLogix: https://learn.microsoft.com/fslogix/concepts-container-recovery-business-continuity.</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Antes de abordar o planejamento e o design do BCDR da Área de Trabalho Virtual do Azure, é importante considerar inicialmente quais aplicativos são consumidos por meio do AVD como críticos. Talvez você queira separá-los de aplicativos não críticos e usar um Pool de Hosts separado com uma abordagem e recursos de recuperação de desastres diferentes.</t>
+          <t>Antes de abordar o planejamento e o design do BCDR da Área de Trabalho Virtual do Azure, é importante considerar inicialmente quais aplicativos consumidos por meio do AVD são críticos. Talvez você queira separá-los de aplicativos não críticos e usar um Pool de Hosts separado com uma abordagem e recursos de recuperação de desastres diferentes.</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>Cada Pool de Hosts pode ser implantado usando Zonas de Disponibilidade (AZ) ou Conjunto de Disponibilidade (AS). Para maximizar a resiliência, o uso do AZ é recomendado: no momento da criação do Pool de Hosts, você pode decidir espalhar os Hosts de Sessão do Pool de Hosts por todos os AZ disponíveis. Mais detalhes sobre AZ e AVD no artigo complementar. Para uma comparação entre AZ e AS, você pode ler aqui: https://learn.microsoft.com/en-us/azure/virtual-machines/availability.</t>
+          <t>Cada Pool de Hosts pode ser implantado usando Zonas de Disponibilidade (AZ) ou Conjunto de Disponibilidade (AS). Para maximizar a resiliência, o uso do AZ é recomendado: no momento da criação do Pool de Hosts, você pode decidir espalhar os Hosts de Sessão do Pool de Hosts por todos os AZ disponíveis. Mais detalhes sobre AZ e AVD no artigo complementar. Para uma comparação entre AZ e AS, você pode ler aqui: https://learn.microsoft.com/azure/virtual-machines/availability.</t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>Para recuperação de desastres local, o backup nativo do Azure NetApp Files (ANF) está disponível. O ANF é essencialmente redundante localmente, então, para recuperação de desastres geográficos entre regiões, é necessário usar um mecanismo adicional que é a CRR (replicação entre regiões) https://learn.microsoft.com/en-us/azure/azure-netapp-files/cross-region-replication-create-peering. Atualmente, o ANF não fornece replicação nem redundância em diferentes zonas de disponibilidade (AZ), apenas a possibilidade de selecionar em qual AZ único colocar o volume ANF: https://learn.microsoft.com/en-us/azure/azure-netapp-files/manage-availability-zone-volume-placement.</t>
+          <t>Para recuperação de desastres local, o backup nativo do Azure NetApp Files (ANF) está disponível. O ANF é essencialmente redundante localmente, então, para recuperação de desastres geográficos entre regiões, é necessário usar um mecanismo adicional que é a CRR (Cross-Region Replication, replicação entre regiões) https://learn.microsoft.com/azure/azure-netapp-files/cross-region-replication-create-peering. Atualmente, o ANF não fornece replicação nem redundância em diferentes zonas de disponibilidade (AZ), apenas a possibilidade de selecionar em qual AZ único colocar o volume ANF: https://learn.microsoft.com/azure/azure-netapp-files/manage-availability-zone-volume-placement.</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -3133,7 +3133,7 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type?tabs=azure#reassign-a-personal-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type?tabs=azure#reassign-a-personal-desktop</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
@@ -3480,7 +3480,7 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-desktop/users/connect-windows</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/users/connect-windows</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="D72" s="21" t="inlineStr">
         <is>
-          <t>A Área de Trabalho Virtual do Azure dá suporte a diferentes tipos de identidades, dependendo da configuração escolhida. Analise os cenários suportados mencionados no artigo 'Mais informações' e documente a decisão de design de acordo na coluna 'Comentário'. Criticamente, identidades externas (B2B ou B2C) não são suportadas. Certifique-se de revisar também a lista de cenários com suporte no https://learn.microsoft.com/en-us/azure/virtual-desktop/prerequisites?tabs=portal#supported-identity-scenarios.</t>
+          <t>A Área de Trabalho Virtual do Azure dá suporte a diferentes tipos de identidades, dependendo da configuração escolhida. Analise os cenários suportados mencionados no artigo 'Mais informações' e documente a decisão de design de acordo na coluna 'Comentário'. Criticamente, identidades externas (B2B ou B2C) não são suportadas. Certifique-se de revisar também a lista de cenários com suporte no https://learn.microsoft.com/azure/virtual-desktop/prerequisites?tabs=portal#supported-identity-scenarios.</t>
         </is>
       </c>
       <c r="E72" s="21" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="D79" s="21" t="inlineStr">
         <is>
-          <t>Recomendamos usar o Microsoft Intune, se os requisitos puderem ser satisfeitos, para gerenciar seu ambiente de Área de Trabalho Virtual do Azure. Analise os cenários e requisitos com suporte para habilitar o gerenciamento do Intune para Host de Sessão AVD no artigo referenciado na coluna "Mais Informações". Documente sua escolha na coluna 'Comentário'. Nesse artigo, analise os diferentes requisitos e recursos para https://learn.microsoft.com/en-us/mem/intune/fundamentals/windows-virtual-desktop-multi-session https://learn.microsoft.com/en-us/mem/intune/fundamentals/windows-virtual-desktop de sessão única e AVD de várias sessões.</t>
+          <t>Recomendamos usar o Microsoft Intune, se os requisitos puderem ser satisfeitos, para gerenciar seu ambiente de Área de Trabalho Virtual do Azure. Analise os cenários e requisitos com suporte para habilitar o gerenciamento do Intune para Host de Sessão AVD no artigo referenciado na coluna Mais Informações. Documente sua escolha na coluna 'Comentário'. Nesse artigo, analise os diferentes requisitos e recursos para https://learn.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop de sessão única e AVD de várias sess https://learn.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session ões.</t>
         </is>
       </c>
       <c r="E79" s="21" t="inlineStr">
@@ -4906,7 +4906,7 @@
       </c>
       <c r="D85" s="21" t="inlineStr">
         <is>
-          <t>Os clientes têm várias opções: Microsoft Configuration Manager, este artigo explica como aplicar automaticamente atualizações a hosts de sessão da Área de Trabalho Virtual do Azure que executam o Windows 10/11: https://learn.microsoft.com/en-us/azure/virtual-desktop/configure-automatic-updates, Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session, Azure Update Management e WSUS para o sistema operacional Windows Server somente (sistema operacional cliente não suportado:  https://learn.microsoft.com/en-us/azure/automation/update-management/operating-system-requirements), 3ª Festa. Fora de uma situação de correção de segurança de emergência, recomenda-se sair de uma estratégia de correção de estratégia de atualização "in-loco" e adotar uma abordagem de recriação de imagens.</t>
+          <t>Os clientes têm várias opções: Microsoft Configuration Manager, este artigo explica como aplicar automaticamente atualizações a hosts de sessão da Área de Trabalho Virtual do Azure que executam o Windows 10/11: https://learn.microsoft.com/azure/virtual-desktop/configure-automatic-updates, Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session, Azure Update Management e WSUS somente para o sistema operacional Windows Server (sistema operacional cliente não suportado:  https://learn.microsoft.com/azure/automation/update-management/operating-system-requirements), 3ª Festa. Fora de uma situação de correção de segurança de emergência, recomenda-se sair de uma estratégia de correção de estratégia de atualização "in-loco" e adotar uma abordagem de recriação de imagens.</t>
         </is>
       </c>
       <c r="E85" s="21" t="inlineStr">
@@ -5522,7 +5522,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I97" s="15" t="n"/>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="D100" s="21" t="inlineStr">
         <is>
-          <t>UDR e NSG personalizados podem ser aplicados a sub-redes do Pool de Hosts AVD, por exemplo, para redirecionar para o Firewall do Azure ou NVA, ou para filtrar/bloquear o tráfego de rede. Neste caso, recomenda-se revisar cuidadosamente para garantir que o caminho ideal para o tráfego de saída para o plano de controle AVD seja usado. As etiquetas de serviço agora podem ser usadas com UDR e NSG, então o tráfego do plano de gerenciamento AVD pode ser facilmente permitido: https://learn.microsoft.com/en-us/azure/virtual-desktop/safe-url-list.</t>
+          <t>UDR e NSG personalizados podem ser aplicados a sub-redes do Pool de Hosts AVD, por exemplo, para redirecionar para o Firewall do Azure ou NVA, ou para filtrar/bloquear o tráfego de rede. Neste caso, recomenda-se revisar cuidadosamente para garantir que o caminho ideal para o tráfego de saída para o plano de controle AVD seja usado. As etiquetas de serviço agora podem ser usadas com UDR e NSG, então o tráfego do plano de gerenciamento AVD pode ser facilmente permitido: https://learn.microsoft.com/azure/virtual-desktop/safe-url-list.</t>
         </is>
       </c>
       <c r="E100" s="21" t="inlineStr">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="D104" s="21" t="inlineStr">
         <is>
-          <t>As conexões com a Área de Trabalho Virtual do Azure podem usar TCP ou UDP. O RDP Shortpath é um recurso do AVD que estabelece um transporte direto baseado em UDP entre um cliente de Área de Trabalho Remota do Windows com suporte e o host de sessão. se os clientes tiverem linha de visão para hosts de sessão AVD da rede interna (o uso de VPN não é recomendado), esse recurso pode fornecer menor latência e melhores desempenhos, conforme explicado em https://learn.microsoft.com/en-us/azure/virtual-desktop/rdp-shortpath?tabs=managed-networks#key-benefits.</t>
+          <t>As conexões com a Área de Trabalho Virtual do Azure podem usar TCP ou UDP. O RDP Shortpath é um recurso do AVD que estabelece um transporte direto baseado em UDP entre um cliente de Área de Trabalho Remota do Windows com suporte e o host de sessão. se os clientes tiverem linha de visão para hosts de sessão AVD da rede interna (o uso de VPN não é recomendado), esse recurso pode fornecer menor latência e melhores desempenhos, conforme explicado em https://learn.microsoft.com/azure/virtual-desktop/rdp-shortpath?tabs=managed-networks#key-benefits.</t>
         </is>
       </c>
       <c r="E104" s="21" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="D108" s="21" t="inlineStr">
         <is>
-          <t>O lançamento confiável são VMs do Azure Gen2 com recursos de segurança aprimorados destinados a proteger contra ameaças do "fundo da pilha" por meio de vetores de ataque, como rootkits, kits de inicialização e malware no nível do kernel. Recomendado para habilitar e aproveitar a Inicialização Segura, o TPM Virtual (vTPM) e o Monitoramento de Integridade.</t>
+          <t>O lançamento confiável são VMs do Azure Gen2 com recursos de segurança aprimorados destinados a proteger contra ameaças da parte inferior da pilha por meio de vetores de ataque, como rootkits, kits de inicialização e malware no nível do kernel. Recomendado para habilitar e aproveitar a Inicialização Segura, o TPM Virtual (vTPM) e o Monitoramento de Integridade.</t>
         </is>
       </c>
       <c r="E108" s="21" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="D115" s="21" t="inlineStr">
         <is>
-          <t>Recomendamos que você habilite o Defender for Cloud para assinaturas, máquinas virtuais, cofres de chaves e contas de armazenamento usadas pelo AVD. Com esta ferramenta é possível avaliar e gerenciar vulnerabilidades, avaliar a conformidade com estruturas comuns como PCI, fortalecer a segurança geral do seu ambiente AVD e medi-la ao longo do tempo usando 'Secure Score': https://learn.microsoft.com/en-us/azure/virtual-desktop/security-guide#improve-your-secure-score.</t>
+          <t>Recomendamos que você habilite o Defender for Cloud para assinaturas, máquinas virtuais, cofres de chaves e contas de armazenamento usadas pelo AVD. Com esta ferramenta é possível avaliar e gerenciar vulnerabilidades, avaliar a conformidade com estruturas comuns como PCI, fortalecer a segurança geral do seu ambiente AVD e medi-la ao longo do tempo usando 'Secure Score': https://learn.microsoft.com/azure/virtual-desktop/security-guide#improve-your-secure-score.</t>
         </is>
       </c>
       <c r="E115" s="21" t="inlineStr">
@@ -7441,7 +7441,7 @@
       </c>
       <c r="D136" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Cloud Cache usa a unidade do sistema operacional como armazenamento de cache local e pode gerar muita pressão no disco da VM. Dependendo da SKU da VM e do tamanho usado, a unidade temporária da VM pode ser uma solução viável e eficiente para realocar o conteúdo armazenado em cache do Cloud Cache. Antes de adotar esta solução, testes devem ser executados para confirmar o desempenho e a estabilidade. Mais detalhes sobre o Cloud Cache podem ser encontrados aqui: https://learn.microsoft.com/en-us/fslogix/concepts-fslogix-cloud-cache. </t>
+          <t xml:space="preserve">O Cloud Cache usa a unidade do sistema operacional como armazenamento de cache local e pode gerar muita pressão no disco da VM. Dependendo da SKU da VM e do tamanho usado, a unidade temporária da VM pode ser uma solução viável e eficiente para realocar o conteúdo armazenado em cache do Cloud Cache. Antes de adotar esta solução, testes devem ser executados para confirmar o desempenho e a estabilidade. Mais detalhes sobre o Cloud Cache podem ser encontrados aqui: https://learn.microsoft.com/fslogix/concepts-fslogix-cloud-cache. </t>
         </is>
       </c>
       <c r="E136" s="21" t="inlineStr">
